--- a/groups/24-25-Univers/codeforces_results.xlsx
+++ b/groups/24-25-Univers/codeforces_results.xlsx
@@ -1936,7 +1936,7 @@
     <t>101487H</t>
   </si>
   <si>
-    <t>31-</t>
+    <t>2+, 34-</t>
   </si>
   <si>
     <t>101806Q</t>
@@ -2493,7 +2493,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="C4">
         <v>80</v>
@@ -2513,7 +2513,7 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C5">
         <v>35</v>
@@ -2533,7 +2533,7 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -7534,7 +7534,7 @@
       <c r="A602" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B602" s="4" t="s">
+      <c r="B602" s="3" t="s">
         <v>639</v>
       </c>
     </row>

--- a/groups/24-25-Univers/codeforces_results.xlsx
+++ b/groups/24-25-Univers/codeforces_results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$F$636</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$F$637</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="679">
   <si>
     <t>№</t>
   </si>
@@ -130,6 +130,12 @@
     <t>52A</t>
   </si>
   <si>
+    <t>52C</t>
+  </si>
+  <si>
+    <t>1+, 2-</t>
+  </si>
+  <si>
     <t>58A</t>
   </si>
   <si>
@@ -194,9 +200,6 @@
   </si>
   <si>
     <t>161D</t>
-  </si>
-  <si>
-    <t>1+, 2-</t>
   </si>
   <si>
     <t>182B</t>
@@ -2416,7 +2419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F636"/>
+  <dimension ref="A1:F637"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2499,7 +2502,7 @@
         <v>80</v>
       </c>
       <c r="D4">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E4">
         <v>91</v>
@@ -2519,7 +2522,7 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5">
         <v>23</v>
@@ -2705,13 +2708,13 @@
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>17</v>
+      <c r="D25" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>17</v>
@@ -2719,7 +2722,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>17</v>
@@ -2727,26 +2730,26 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>17</v>
@@ -2754,7 +2757,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>17</v>
@@ -2762,23 +2765,23 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>17</v>
@@ -2786,7 +2789,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>17</v>
@@ -2794,7 +2797,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>17</v>
@@ -2802,7 +2805,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>17</v>
@@ -2810,7 +2813,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>17</v>
@@ -2818,7 +2821,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>17</v>
@@ -2826,7 +2829,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>17</v>
@@ -2834,10 +2837,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2845,12 +2848,12 @@
         <v>55</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>17</v>
@@ -2858,7 +2861,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>17</v>
@@ -2866,25 +2869,25 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>17</v>
+      <c r="B46" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2900,16 +2903,16 @@
       <c r="A49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>64</v>
+      <c r="B49" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2959,9 +2962,6 @@
       <c r="B56" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
@@ -2970,6 +2970,9 @@
       <c r="B57" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D57" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
@@ -2992,23 +2995,23 @@
         <v>75</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>77</v>
+      <c r="B61" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3087,7 +3090,7 @@
       <c r="A72" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3095,7 +3098,7 @@
       <c r="A73" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3143,7 +3146,7 @@
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3151,7 +3154,7 @@
       <c r="A80" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3160,7 +3163,7 @@
         <v>97</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3168,7 +3171,7 @@
         <v>98</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3176,7 +3179,7 @@
         <v>99</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3200,7 +3203,7 @@
         <v>102</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3208,7 +3211,7 @@
         <v>103</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3336,7 +3339,7 @@
         <v>119</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -3344,15 +3347,15 @@
         <v>120</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -3426,9 +3429,6 @@
       <c r="B114" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
@@ -3437,6 +3437,9 @@
       <c r="B115" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D115" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
@@ -3466,16 +3469,16 @@
       <c r="A119" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E119" s="4" t="s">
-        <v>137</v>
+      <c r="B119" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E120" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3499,15 +3502,15 @@
         <v>141</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3523,7 +3526,7 @@
         <v>145</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3531,7 +3534,7 @@
         <v>146</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3541,9 +3544,6 @@
       <c r="B128" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2" t="s">
@@ -3552,13 +3552,16 @@
       <c r="B129" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D129" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3566,7 +3569,7 @@
         <v>150</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3622,7 +3625,7 @@
         <v>157</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3630,7 +3633,7 @@
         <v>158</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3638,7 +3641,7 @@
         <v>159</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3646,7 +3649,7 @@
         <v>160</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3654,23 +3657,23 @@
         <v>161</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>19</v>
+      <c r="B143" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>17</v>
+      <c r="D144" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -3718,7 +3721,7 @@
         <v>169</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3726,7 +3729,7 @@
         <v>170</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3742,7 +3745,7 @@
         <v>172</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3750,7 +3753,7 @@
         <v>173</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3782,7 +3785,7 @@
         <v>177</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3790,7 +3793,7 @@
         <v>178</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3798,7 +3801,7 @@
         <v>179</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3814,30 +3817,30 @@
         <v>181</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D163" s="4" t="s">
-        <v>183</v>
+      <c r="B163" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D164" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="D165" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3846,15 +3849,15 @@
         <v>186</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3870,15 +3873,15 @@
         <v>190</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>191</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3918,7 +3921,7 @@
         <v>197</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3926,7 +3929,7 @@
         <v>198</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3950,22 +3953,22 @@
         <v>201</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D180" s="3" t="s">
-        <v>17</v>
+      <c r="B180" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="D181" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3982,22 +3985,22 @@
         <v>205</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D184" s="3" t="s">
-        <v>17</v>
+      <c r="B184" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="D185" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4030,13 +4033,7 @@
         <v>211</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4044,7 +4041,13 @@
         <v>212</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4052,7 +4055,7 @@
         <v>213</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4068,7 +4071,7 @@
         <v>215</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4076,14 +4079,14 @@
         <v>216</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="B195" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4091,8 +4094,8 @@
       <c r="A196" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B196" s="3" t="s">
-        <v>19</v>
+      <c r="D196" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4100,7 +4103,7 @@
         <v>219</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4148,7 +4151,7 @@
         <v>225</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4156,7 +4159,7 @@
         <v>226</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4164,7 +4167,7 @@
         <v>227</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4172,14 +4175,14 @@
         <v>228</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="F207" s="3" t="s">
+      <c r="B207" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4187,67 +4190,67 @@
       <c r="A208" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D208" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
+      <c r="F208" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B209" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
+      <c r="D209" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B211" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
+      <c r="B211" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B212" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
+      <c r="B212" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B214" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
+      <c r="B214" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B215" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
+      <c r="B215" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
         <v>238</v>
       </c>
@@ -4255,47 +4258,47 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:4">
       <c r="A217" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B217" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
+      <c r="B217" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B218" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
+      <c r="B218" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B219" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
+      <c r="B219" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B220" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
+      <c r="B220" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" s="2" t="s">
         <v>244</v>
       </c>
@@ -4303,7 +4306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:4">
       <c r="A223" s="2" t="s">
         <v>245</v>
       </c>
@@ -4311,20 +4314,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:4">
       <c r="A224" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B224" s="4" t="s">
-        <v>64</v>
+      <c r="B224" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B225" s="3" t="s">
-        <v>17</v>
+      <c r="B225" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -4332,7 +4335,7 @@
         <v>248</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -4348,7 +4351,7 @@
         <v>250</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -4356,7 +4359,7 @@
         <v>251</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -4364,23 +4367,23 @@
         <v>252</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B231" s="4" t="s">
-        <v>64</v>
+      <c r="B231" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B232" s="3" t="s">
-        <v>17</v>
+      <c r="B232" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -4388,7 +4391,7 @@
         <v>255</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -4396,31 +4399,31 @@
         <v>256</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B235" s="4" t="s">
-        <v>137</v>
+      <c r="B235" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B236" s="3" t="s">
-        <v>259</v>
+      <c r="B236" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B237" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -4428,7 +4431,7 @@
         <v>261</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -4436,7 +4439,7 @@
         <v>262</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -4444,7 +4447,7 @@
         <v>263</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -4492,7 +4495,7 @@
         <v>269</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -4500,7 +4503,7 @@
         <v>270</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -4556,7 +4559,7 @@
         <v>277</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -4564,7 +4567,7 @@
         <v>278</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -4575,7 +4578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:2">
       <c r="A257" s="2" t="s">
         <v>280</v>
       </c>
@@ -4583,7 +4586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:2">
       <c r="A258" s="2" t="s">
         <v>281</v>
       </c>
@@ -4591,7 +4594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:2">
       <c r="A259" s="2" t="s">
         <v>282</v>
       </c>
@@ -4599,7 +4602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:2">
       <c r="A260" s="2" t="s">
         <v>283</v>
       </c>
@@ -4607,7 +4610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:2">
       <c r="A261" s="2" t="s">
         <v>284</v>
       </c>
@@ -4615,23 +4618,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:2">
       <c r="A262" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B262" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="263" spans="1:6">
-      <c r="A263" s="2" t="s">
+      <c r="B263" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B263" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
+    </row>
+    <row r="264" spans="1:2">
       <c r="A264" s="2" t="s">
         <v>288</v>
       </c>
@@ -4639,39 +4642,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:2">
       <c r="A265" s="2" t="s">
         <v>289</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
       <c r="A266" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
       <c r="A267" s="2" t="s">
         <v>291</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
       <c r="A268" s="2" t="s">
         <v>292</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
       <c r="A269" s="2" t="s">
         <v>293</v>
       </c>
@@ -4679,7 +4682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:2">
       <c r="A270" s="2" t="s">
         <v>294</v>
       </c>
@@ -4687,34 +4690,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:2">
       <c r="A271" s="2" t="s">
         <v>295</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
       <c r="A272" s="2" t="s">
         <v>296</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F272" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="2" t="s">
+      <c r="B273" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F273" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B273" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" s="2" t="s">
         <v>299</v>
       </c>
@@ -4722,7 +4725,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:6">
       <c r="A275" s="2" t="s">
         <v>300</v>
       </c>
@@ -4730,7 +4733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:6">
       <c r="A276" s="2" t="s">
         <v>301</v>
       </c>
@@ -4738,7 +4741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:6">
       <c r="A277" s="2" t="s">
         <v>302</v>
       </c>
@@ -4746,23 +4749,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:6">
       <c r="A278" s="2" t="s">
         <v>303</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" s="2" t="s">
         <v>304</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" s="2" t="s">
         <v>305</v>
       </c>
@@ -4770,7 +4773,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:6">
       <c r="A281" s="2" t="s">
         <v>306</v>
       </c>
@@ -4778,23 +4781,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:6">
       <c r="A282" s="2" t="s">
         <v>307</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" s="2" t="s">
         <v>308</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284" s="2" t="s">
         <v>309</v>
       </c>
@@ -4802,7 +4805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:6">
       <c r="A285" s="2" t="s">
         <v>310</v>
       </c>
@@ -4810,7 +4813,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:6">
       <c r="A286" s="2" t="s">
         <v>311</v>
       </c>
@@ -4818,7 +4821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:6">
       <c r="A287" s="2" t="s">
         <v>312</v>
       </c>
@@ -4826,7 +4829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:6">
       <c r="A288" s="2" t="s">
         <v>313</v>
       </c>
@@ -4846,16 +4849,16 @@
       <c r="A290" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B290" s="4" t="s">
-        <v>64</v>
+      <c r="B290" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B291" s="3" t="s">
-        <v>17</v>
+      <c r="B291" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4919,7 +4922,7 @@
         <v>324</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4927,7 +4930,7 @@
         <v>325</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4962,7 +4965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:2">
       <c r="A305" s="2" t="s">
         <v>330</v>
       </c>
@@ -4970,7 +4973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:2">
       <c r="A306" s="2" t="s">
         <v>331</v>
       </c>
@@ -4978,7 +4981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:2">
       <c r="A307" s="2" t="s">
         <v>332</v>
       </c>
@@ -4986,7 +4989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:2">
       <c r="A308" s="2" t="s">
         <v>333</v>
       </c>
@@ -4994,7 +4997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:2">
       <c r="A309" s="2" t="s">
         <v>334</v>
       </c>
@@ -5002,7 +5005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:2">
       <c r="A310" s="2" t="s">
         <v>335</v>
       </c>
@@ -5010,23 +5013,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:2">
       <c r="A311" s="2" t="s">
         <v>336</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
       <c r="A312" s="2" t="s">
         <v>337</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
       <c r="A313" s="2" t="s">
         <v>338</v>
       </c>
@@ -5034,7 +5037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:2">
       <c r="A314" s="2" t="s">
         <v>339</v>
       </c>
@@ -5042,7 +5045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:2">
       <c r="A315" s="2" t="s">
         <v>340</v>
       </c>
@@ -5050,7 +5053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:2">
       <c r="A316" s="2" t="s">
         <v>341</v>
       </c>
@@ -5058,7 +5061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:2">
       <c r="A317" s="2" t="s">
         <v>342</v>
       </c>
@@ -5066,7 +5069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:2">
       <c r="A318" s="2" t="s">
         <v>343</v>
       </c>
@@ -5074,7 +5077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:2">
       <c r="A319" s="2" t="s">
         <v>344</v>
       </c>
@@ -5082,39 +5085,39 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:2">
       <c r="A320" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D320" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
+      <c r="B320" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
       <c r="A321" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B321" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
+      <c r="D321" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
       <c r="A322" s="2" t="s">
         <v>347</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
       <c r="A323" s="2" t="s">
         <v>348</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
       <c r="A324" s="2" t="s">
         <v>349</v>
       </c>
@@ -5122,7 +5125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:4">
       <c r="A325" s="2" t="s">
         <v>350</v>
       </c>
@@ -5130,7 +5133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:4">
       <c r="A326" s="2" t="s">
         <v>351</v>
       </c>
@@ -5138,7 +5141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:4">
       <c r="A327" s="2" t="s">
         <v>352</v>
       </c>
@@ -5146,7 +5149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:4">
       <c r="A328" s="2" t="s">
         <v>353</v>
       </c>
@@ -5154,7 +5157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
         <v>354</v>
       </c>
@@ -5162,7 +5165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:4">
       <c r="A330" s="2" t="s">
         <v>355</v>
       </c>
@@ -5170,23 +5173,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:4">
       <c r="A331" s="2" t="s">
         <v>356</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
       <c r="A332" s="2" t="s">
         <v>357</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
       <c r="A333" s="2" t="s">
         <v>358</v>
       </c>
@@ -5194,7 +5197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:4">
       <c r="A334" s="2" t="s">
         <v>359</v>
       </c>
@@ -5202,7 +5205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:4">
       <c r="A335" s="2" t="s">
         <v>360</v>
       </c>
@@ -5210,7 +5213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:4">
       <c r="A336" s="2" t="s">
         <v>361</v>
       </c>
@@ -5319,7 +5322,7 @@
         <v>374</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -5327,7 +5330,7 @@
         <v>375</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -5343,7 +5346,7 @@
         <v>377</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -5359,7 +5362,7 @@
         <v>379</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -5383,15 +5386,15 @@
         <v>382</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>383</v>
+        <v>17</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B358" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="B358" s="3" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -5399,7 +5402,7 @@
         <v>385</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>17</v>
+        <v>384</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -5407,7 +5410,7 @@
         <v>386</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -5415,7 +5418,7 @@
         <v>387</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -5503,9 +5506,6 @@
         <v>398</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E372" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5514,6 +5514,9 @@
         <v>399</v>
       </c>
       <c r="B373" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E373" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5530,7 +5533,7 @@
         <v>401</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -5538,7 +5541,7 @@
         <v>402</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -5546,7 +5549,7 @@
         <v>403</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -5570,7 +5573,7 @@
         <v>406</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -5578,7 +5581,7 @@
         <v>407</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -5642,7 +5645,7 @@
         <v>415</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -5650,7 +5653,7 @@
         <v>416</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -5660,9 +5663,6 @@
       <c r="B391" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D391" s="3" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="2" t="s">
@@ -5671,6 +5671,9 @@
       <c r="B392" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D392" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="2" t="s">
@@ -5765,7 +5768,7 @@
         <v>430</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -5773,7 +5776,7 @@
         <v>431</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5789,7 +5792,7 @@
         <v>433</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5797,7 +5800,7 @@
         <v>434</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5861,7 +5864,7 @@
         <v>442</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5869,7 +5872,7 @@
         <v>443</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5877,7 +5880,7 @@
         <v>444</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5885,7 +5888,7 @@
         <v>445</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5909,15 +5912,15 @@
         <v>448</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>449</v>
+        <v>17</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B423" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="B423" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5940,16 +5943,16 @@
       <c r="A426" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B426" s="4" t="s">
-        <v>183</v>
+      <c r="B426" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B427" s="3" t="s">
-        <v>17</v>
+      <c r="B427" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -6036,16 +6039,16 @@
       <c r="A438" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D438" s="3" t="s">
-        <v>28</v>
+      <c r="B438" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B439" s="3" t="s">
-        <v>17</v>
+      <c r="D439" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -6069,7 +6072,7 @@
         <v>469</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>383</v>
+        <v>17</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -6077,7 +6080,7 @@
         <v>470</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>17</v>
+        <v>384</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6117,7 +6120,7 @@
         <v>475</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -6125,7 +6128,7 @@
         <v>476</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -6197,7 +6200,7 @@
         <v>485</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -6205,7 +6208,7 @@
         <v>486</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -6213,7 +6216,7 @@
         <v>487</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -6221,7 +6224,7 @@
         <v>488</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -6237,26 +6240,26 @@
         <v>490</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>491</v>
+        <v>17</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B464" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B464" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4">
+    </row>
+    <row r="465" spans="1:2">
       <c r="A465" s="2" t="s">
         <v>493</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
       <c r="A466" s="2" t="s">
         <v>494</v>
       </c>
@@ -6264,7 +6267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:2">
       <c r="A467" s="2" t="s">
         <v>495</v>
       </c>
@@ -6272,7 +6275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:2">
       <c r="A468" s="2" t="s">
         <v>496</v>
       </c>
@@ -6280,7 +6283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:2">
       <c r="A469" s="2" t="s">
         <v>497</v>
       </c>
@@ -6288,100 +6291,100 @@
         <v>17</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:2">
       <c r="A470" s="2" t="s">
         <v>498</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
       <c r="A471" s="2" t="s">
         <v>499</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
       <c r="A472" s="2" t="s">
         <v>500</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
       <c r="A473" s="2" t="s">
         <v>501</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
       <c r="A474" s="2" t="s">
         <v>502</v>
       </c>
       <c r="B474" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="475" spans="1:4">
-      <c r="A475" s="2" t="s">
+      <c r="B475" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B475" s="3" t="s">
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="2" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="476" spans="1:4">
-      <c r="A476" s="2" t="s">
+      <c r="B476" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="B476" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4">
+    </row>
+    <row r="477" spans="1:2">
       <c r="A477" s="2" t="s">
         <v>507</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
       <c r="A478" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="B478" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4">
+      <c r="B478" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
       <c r="A479" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B479" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4">
+      <c r="B479" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
       <c r="A480" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="D480" s="4" t="s">
-        <v>183</v>
+      <c r="B480" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="481" spans="1:6">
       <c r="A481" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B481" s="3" t="s">
-        <v>17</v>
+      <c r="D481" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -6428,32 +6431,32 @@
       <c r="A487" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="F487" s="4" t="s">
-        <v>518</v>
+      <c r="B487" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="488" spans="1:6">
       <c r="A488" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="F488" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="D488" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="489" spans="1:6">
       <c r="A489" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D489" s="4" t="s">
-        <v>183</v>
+      <c r="D489" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="490" spans="1:6">
       <c r="A490" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B490" s="3" t="s">
-        <v>191</v>
+      <c r="D490" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -6461,63 +6464,63 @@
         <v>522</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
     </row>
     <row r="492" spans="1:6">
       <c r="A492" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B492" s="4" t="s">
-        <v>137</v>
+      <c r="B492" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="493" spans="1:6">
       <c r="A493" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B493" s="3" t="s">
-        <v>17</v>
+      <c r="B493" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="494" spans="1:6">
       <c r="A494" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B494" s="4" t="s">
-        <v>183</v>
+      <c r="B494" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="495" spans="1:6">
       <c r="A495" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C495" s="3" t="s">
-        <v>19</v>
+      <c r="B495" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="496" spans="1:6">
       <c r="A496" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="D496" s="3" t="s">
-        <v>17</v>
+      <c r="C496" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D497" s="4" t="s">
-        <v>64</v>
+      <c r="D497" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D498" s="3" t="s">
-        <v>17</v>
+      <c r="D498" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -6564,24 +6567,24 @@
       <c r="A504" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D504" s="4" t="s">
-        <v>64</v>
+      <c r="D504" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C505" s="3" t="s">
-        <v>59</v>
+      <c r="D505" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D506" s="3" t="s">
-        <v>59</v>
+      <c r="C506" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -6589,7 +6592,7 @@
         <v>538</v>
       </c>
       <c r="D507" s="3" t="s">
-        <v>491</v>
+        <v>38</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -6597,7 +6600,7 @@
         <v>539</v>
       </c>
       <c r="D508" s="3" t="s">
-        <v>17</v>
+        <v>492</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -6629,23 +6632,23 @@
         <v>543</v>
       </c>
       <c r="D512" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="513" spans="1:5">
       <c r="A513" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="D513" s="4" t="s">
-        <v>545</v>
+      <c r="D513" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="514" spans="1:5">
       <c r="A514" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D514" s="4" t="s">
         <v>546</v>
-      </c>
-      <c r="C514" s="3" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -6653,31 +6656,31 @@
         <v>547</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>17</v>
+        <v>298</v>
       </c>
     </row>
     <row r="516" spans="1:5">
       <c r="A516" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="E516" s="3" t="s">
-        <v>28</v>
+      <c r="C516" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="517" spans="1:5">
       <c r="A517" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="E517" s="4" t="s">
-        <v>64</v>
+      <c r="E517" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="518" spans="1:5">
       <c r="A518" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B518" s="3" t="s">
-        <v>17</v>
+      <c r="E518" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -6693,7 +6696,7 @@
         <v>552</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -6701,17 +6704,14 @@
         <v>553</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="522" spans="1:5">
       <c r="A522" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="D522" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E522" s="3" t="s">
+      <c r="B522" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6723,7 +6723,7 @@
         <v>17</v>
       </c>
       <c r="E523" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -6731,35 +6731,32 @@
         <v>556</v>
       </c>
       <c r="D524" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E524" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="525" spans="1:5">
       <c r="A525" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D525" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E525" s="4" t="s">
-        <v>64</v>
+      <c r="D525" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E525" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="526" spans="1:5">
       <c r="A526" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B526" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C526" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D526" s="3" t="s">
-        <v>17</v>
+      <c r="D526" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E526" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -6767,13 +6764,13 @@
         <v>559</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D527" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -6781,10 +6778,10 @@
         <v>560</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D528" s="3" t="s">
         <v>19</v>
@@ -6794,16 +6791,22 @@
       <c r="A529" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B529" s="4" t="s">
-        <v>183</v>
+      <c r="B529" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="530" spans="1:5">
       <c r="A530" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C530" s="3" t="s">
-        <v>17</v>
+      <c r="B530" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -6813,25 +6816,19 @@
       <c r="C531" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D531" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E531" s="4" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="532" spans="1:5">
       <c r="A532" s="2" t="s">
         <v>564</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D532" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="E532" s="4" t="s">
-        <v>518</v>
+        <v>65</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -6839,13 +6836,13 @@
         <v>565</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D533" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E533" s="4" t="s">
-        <v>64</v>
+        <v>519</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -6853,10 +6850,13 @@
         <v>566</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D534" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="E534" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -6867,32 +6867,29 @@
         <v>17</v>
       </c>
       <c r="D535" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="536" spans="1:5">
       <c r="A536" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C536" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D536" s="4" t="s">
-        <v>77</v>
+      <c r="C536" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="537" spans="1:5">
       <c r="A537" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B537" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C537" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D537" s="3" t="s">
-        <v>17</v>
+      <c r="C537" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D537" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -6906,7 +6903,7 @@
         <v>17</v>
       </c>
       <c r="D538" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -6914,6 +6911,12 @@
         <v>571</v>
       </c>
       <c r="B539" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D539" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6921,8 +6924,8 @@
       <c r="A540" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="D540" s="3" t="s">
-        <v>259</v>
+      <c r="B540" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -6930,23 +6933,23 @@
         <v>573</v>
       </c>
       <c r="D541" s="3" t="s">
-        <v>449</v>
+        <v>260</v>
       </c>
     </row>
     <row r="542" spans="1:5">
       <c r="A542" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="D542" s="4" t="s">
-        <v>64</v>
+      <c r="D542" s="3" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="543" spans="1:5">
       <c r="A543" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="D543" s="3" t="s">
-        <v>17</v>
+      <c r="D543" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -6954,7 +6957,7 @@
         <v>576</v>
       </c>
       <c r="D544" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="545" spans="1:6">
@@ -6962,26 +6965,23 @@
         <v>577</v>
       </c>
       <c r="D545" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="546" spans="1:6">
       <c r="A546" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D546" s="4" t="s">
-        <v>183</v>
+      <c r="D546" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="547" spans="1:6">
       <c r="A547" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C547" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D547" s="3" t="s">
-        <v>17</v>
+      <c r="D547" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="548" spans="1:6">
@@ -6989,10 +6989,10 @@
         <v>580</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D548" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -7003,32 +7003,29 @@
         <v>19</v>
       </c>
       <c r="D549" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="550" spans="1:6">
       <c r="A550" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C550" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D550" s="4" t="s">
-        <v>583</v>
+      <c r="C550" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="551" spans="1:6">
       <c r="A551" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C551" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D551" s="4" t="s">
         <v>584</v>
-      </c>
-      <c r="C551" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D551" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E551" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -7036,13 +7033,13 @@
         <v>585</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D552" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E552" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -7050,51 +7047,51 @@
         <v>586</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D553" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E553" s="3" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="554" spans="1:6">
       <c r="A554" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C554" s="4" t="s">
-        <v>64</v>
+      <c r="C554" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="555" spans="1:6">
       <c r="A555" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B555" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C555" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D555" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F555" s="3" t="s">
-        <v>17</v>
+      <c r="C555" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="556" spans="1:6">
       <c r="A556" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B556" s="4" t="s">
-        <v>64</v>
+      <c r="B556" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C556" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D556" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F556" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7102,14 +7099,14 @@
       <c r="A557" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B557" s="3" t="s">
-        <v>17</v>
+      <c r="B557" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="558" spans="1:6">
@@ -7123,7 +7120,7 @@
         <v>19</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -7134,10 +7131,10 @@
         <v>17</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
     </row>
     <row r="560" spans="1:6">
@@ -7147,21 +7144,21 @@
       <c r="B560" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="C560" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D560" s="3" t="s">
-        <v>17</v>
+        <v>188</v>
       </c>
     </row>
     <row r="561" spans="1:5">
       <c r="A561" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C561" s="3" t="s">
-        <v>59</v>
+      <c r="B561" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E561" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7170,7 +7167,7 @@
         <v>595</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D562" s="3" t="s">
         <v>17</v>
@@ -7189,8 +7186,8 @@
       <c r="D563" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E563" s="4" t="s">
-        <v>183</v>
+      <c r="E563" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -7198,13 +7195,13 @@
         <v>597</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D564" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E564" s="3" t="s">
-        <v>449</v>
+      <c r="E564" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -7212,13 +7209,13 @@
         <v>598</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D565" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E565" s="3" t="s">
-        <v>19</v>
+        <v>450</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -7226,7 +7223,13 @@
         <v>599</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="D566" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E566" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -7234,26 +7237,23 @@
         <v>600</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="568" spans="1:5">
       <c r="A568" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C568" s="4" t="s">
-        <v>137</v>
+      <c r="C568" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="569" spans="1:5">
       <c r="A569" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C569" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E569" s="3" t="s">
-        <v>17</v>
+      <c r="C569" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -7261,37 +7261,40 @@
         <v>603</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E570" s="4" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="E570" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="571" spans="1:5">
       <c r="A571" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C571" s="4" t="s">
-        <v>518</v>
+      <c r="C571" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E571" s="4" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
     </row>
     <row r="572" spans="1:5">
       <c r="A572" s="2" t="s">
         <v>605</v>
       </c>
+      <c r="C572" s="4" t="s">
+        <v>519</v>
+      </c>
       <c r="E572" s="4" t="s">
-        <v>137</v>
+        <v>184</v>
       </c>
     </row>
     <row r="573" spans="1:5">
       <c r="A573" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B573" s="3" t="s">
-        <v>59</v>
+      <c r="E573" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -7299,7 +7302,7 @@
         <v>607</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -7307,7 +7310,7 @@
         <v>608</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -7315,7 +7318,7 @@
         <v>609</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="577" spans="1:6">
@@ -7339,7 +7342,7 @@
         <v>612</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="580" spans="1:6">
@@ -7347,48 +7350,48 @@
         <v>613</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>259</v>
+        <v>38</v>
       </c>
     </row>
     <row r="581" spans="1:6">
       <c r="A581" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="B581" s="4" t="s">
-        <v>518</v>
+      <c r="B581" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="582" spans="1:6">
       <c r="A582" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="D582" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E582" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="F582" s="4" t="s">
-        <v>617</v>
+      <c r="B582" s="4" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="583" spans="1:6">
       <c r="A583" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D583" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E583" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="F583" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="D583" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E583" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="584" spans="1:6">
       <c r="A584" s="2" t="s">
         <v>619</v>
       </c>
+      <c r="D584" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="E584" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="585" spans="1:6">
@@ -7396,7 +7399,7 @@
         <v>620</v>
       </c>
       <c r="E585" s="3" t="s">
-        <v>449</v>
+        <v>17</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -7404,10 +7407,7 @@
         <v>621</v>
       </c>
       <c r="E586" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F586" s="3" t="s">
-        <v>17</v>
+        <v>450</v>
       </c>
     </row>
     <row r="587" spans="1:6">
@@ -7415,23 +7415,26 @@
         <v>622</v>
       </c>
       <c r="E587" s="3" t="s">
-        <v>623</v>
+        <v>19</v>
+      </c>
+      <c r="F587" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="588" spans="1:6">
       <c r="A588" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E588" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="E588" s="4" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="589" spans="1:6">
       <c r="A589" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="E589" s="3" t="s">
-        <v>17</v>
+      <c r="E589" s="4" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="590" spans="1:6">
@@ -7439,14 +7442,14 @@
         <v>626</v>
       </c>
       <c r="E590" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="591" spans="1:6">
       <c r="A591" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="B591" s="3" t="s">
+      <c r="E591" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7455,7 +7458,7 @@
         <v>628</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -7495,7 +7498,7 @@
         <v>633</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>449</v>
+        <v>17</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -7503,7 +7506,7 @@
         <v>634</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>59</v>
+        <v>450</v>
       </c>
     </row>
     <row r="599" spans="1:4">
@@ -7511,7 +7514,7 @@
         <v>635</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -7527,7 +7530,7 @@
         <v>637</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -7535,15 +7538,15 @@
         <v>638</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>639</v>
+        <v>143</v>
       </c>
     </row>
     <row r="603" spans="1:4">
       <c r="A603" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B603" s="3" t="s">
         <v>640</v>
-      </c>
-      <c r="B603" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="604" spans="1:4">
@@ -7551,10 +7554,7 @@
         <v>641</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="D604" s="3" t="s">
-        <v>17</v>
+        <v>188</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -7562,7 +7562,10 @@
         <v>642</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>59</v>
+        <v>492</v>
+      </c>
+      <c r="D605" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="606" spans="1:4">
@@ -7570,7 +7573,7 @@
         <v>643</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -7578,7 +7581,7 @@
         <v>644</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="608" spans="1:4">
@@ -7586,7 +7589,7 @@
         <v>645</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -7594,7 +7597,7 @@
         <v>646</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -7602,7 +7605,7 @@
         <v>647</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="611" spans="1:2">
@@ -7618,7 +7621,7 @@
         <v>649</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -7626,7 +7629,7 @@
         <v>650</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -7634,7 +7637,7 @@
         <v>651</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -7642,7 +7645,7 @@
         <v>652</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>623</v>
+        <v>19</v>
       </c>
     </row>
     <row r="616" spans="1:2">
@@ -7650,7 +7653,7 @@
         <v>653</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>17</v>
+        <v>624</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -7666,7 +7669,7 @@
         <v>655</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>491</v>
+        <v>17</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -7674,7 +7677,7 @@
         <v>656</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>17</v>
+        <v>492</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -7690,15 +7693,15 @@
         <v>658</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>659</v>
+        <v>17</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B622" s="3" t="s">
         <v>660</v>
-      </c>
-      <c r="B622" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -7706,15 +7709,15 @@
         <v>661</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>662</v>
+        <v>17</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B624" s="3" t="s">
         <v>663</v>
-      </c>
-      <c r="B624" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -7722,15 +7725,15 @@
         <v>664</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>665</v>
+        <v>188</v>
       </c>
     </row>
     <row r="626" spans="1:4">
       <c r="A626" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B626" s="3" t="s">
         <v>666</v>
-      </c>
-      <c r="B626" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="627" spans="1:4">
@@ -7738,15 +7741,15 @@
         <v>667</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>668</v>
+        <v>19</v>
       </c>
     </row>
     <row r="628" spans="1:4">
       <c r="A628" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B628" s="3" t="s">
         <v>669</v>
-      </c>
-      <c r="B628" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="629" spans="1:4">
@@ -7754,7 +7757,7 @@
         <v>670</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -7762,15 +7765,15 @@
         <v>671</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="631" spans="1:4">
       <c r="A631" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="D631" s="3" t="s">
-        <v>17</v>
+      <c r="B631" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="632" spans="1:4">
@@ -7778,7 +7781,7 @@
         <v>673</v>
       </c>
       <c r="D632" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -7786,7 +7789,7 @@
         <v>674</v>
       </c>
       <c r="D633" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -7794,7 +7797,7 @@
         <v>675</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -7813,8 +7816,16 @@
         <v>17</v>
       </c>
     </row>
+    <row r="637" spans="1:4">
+      <c r="A637" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D637" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F636"/>
+  <autoFilter ref="A1:F637"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -8451,6 +8462,7 @@
     <hyperlink ref="A634" r:id="rId633"/>
     <hyperlink ref="A635" r:id="rId634"/>
     <hyperlink ref="A636" r:id="rId635"/>
+    <hyperlink ref="A637" r:id="rId636"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/24-25-Univers/codeforces_results.xlsx
+++ b/groups/24-25-Univers/codeforces_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="679">
   <si>
     <t>№</t>
   </si>
@@ -133,6 +133,9 @@
     <t>52C</t>
   </si>
   <si>
+    <t>1+, 5-</t>
+  </si>
+  <si>
     <t>1+, 2-</t>
   </si>
   <si>
@@ -1169,9 +1172,6 @@
   </si>
   <si>
     <t>1583A</t>
-  </si>
-  <si>
-    <t>1+, 5-</t>
   </si>
   <si>
     <t>1583B</t>
@@ -2479,13 +2479,13 @@
         <v>1743</v>
       </c>
       <c r="C3">
-        <v>1334</v>
+        <v>1339</v>
       </c>
       <c r="D3">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="E3">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="F3">
         <v>400</v>
@@ -2499,13 +2499,13 @@
         <v>877</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D4">
         <v>164</v>
       </c>
       <c r="E4">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F4">
         <v>26</v>
@@ -2519,13 +2519,13 @@
         <v>518</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>77</v>
       </c>
       <c r="E5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -2640,7 +2640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>34</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
@@ -2704,41 +2704,47 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C25" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D25" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>17</v>
@@ -2747,25 +2753,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>17</v>
@@ -2773,7 +2779,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>19</v>
@@ -2781,7 +2787,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>17</v>
@@ -2789,7 +2795,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>17</v>
@@ -2797,7 +2803,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>17</v>
@@ -2805,7 +2811,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>17</v>
@@ -2813,7 +2819,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>17</v>
@@ -2821,7 +2827,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>17</v>
@@ -2829,7 +2835,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>17</v>
@@ -2837,7 +2843,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>17</v>
@@ -2845,15 +2851,15 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>17</v>
@@ -2861,7 +2867,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>17</v>
@@ -2869,7 +2875,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>17</v>
@@ -2877,15 +2883,15 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>17</v>
@@ -2893,7 +2899,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>17</v>
@@ -2901,7 +2907,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>17</v>
@@ -2909,15 +2915,15 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>17</v>
@@ -2925,7 +2931,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>17</v>
@@ -2933,7 +2939,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>17</v>
@@ -2941,7 +2947,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>17</v>
@@ -2949,7 +2955,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>17</v>
@@ -2957,7 +2963,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>17</v>
@@ -2965,7 +2971,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>17</v>
@@ -2976,7 +2982,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>17</v>
@@ -2984,7 +2990,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>17</v>
@@ -2992,7 +2998,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>17</v>
@@ -3000,7 +3006,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>19</v>
@@ -3008,15 +3014,15 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>17</v>
@@ -3024,7 +3030,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>17</v>
@@ -3032,7 +3038,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>17</v>
@@ -3040,7 +3046,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>17</v>
@@ -3048,7 +3054,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>17</v>
@@ -3056,7 +3062,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>17</v>
@@ -3064,7 +3070,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>17</v>
@@ -3072,7 +3078,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>17</v>
@@ -3080,7 +3086,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>17</v>
@@ -3088,7 +3094,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>17</v>
@@ -3096,7 +3102,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>17</v>
@@ -3104,7 +3110,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>17</v>
@@ -3112,7 +3118,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>17</v>
@@ -3120,7 +3126,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>17</v>
@@ -3128,7 +3134,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>17</v>
@@ -3136,7 +3142,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>17</v>
@@ -3144,7 +3150,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>17</v>
@@ -3152,7 +3158,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>17</v>
@@ -3160,7 +3166,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>17</v>
@@ -3168,23 +3174,23 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>17</v>
@@ -3192,7 +3198,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>17</v>
@@ -3200,7 +3206,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>17</v>
@@ -3208,7 +3214,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>19</v>
@@ -3216,7 +3222,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>17</v>
@@ -3224,7 +3230,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>17</v>
@@ -3232,7 +3238,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>17</v>
@@ -3240,7 +3246,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>17</v>
@@ -3248,7 +3254,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>17</v>
@@ -3256,7 +3262,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>17</v>
@@ -3264,7 +3270,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>17</v>
@@ -3272,7 +3278,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>17</v>
@@ -3280,7 +3286,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>17</v>
@@ -3288,7 +3294,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>17</v>
@@ -3296,7 +3302,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>17</v>
@@ -3304,7 +3310,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>17</v>
@@ -3312,7 +3318,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>17</v>
@@ -3320,7 +3326,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>17</v>
@@ -3328,7 +3334,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>17</v>
@@ -3336,7 +3342,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>17</v>
@@ -3344,7 +3350,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>19</v>
@@ -3352,15 +3358,15 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>17</v>
@@ -3368,7 +3374,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>17</v>
@@ -3376,7 +3382,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>17</v>
@@ -3384,7 +3390,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>17</v>
@@ -3392,7 +3398,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>17</v>
@@ -3400,7 +3406,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>17</v>
@@ -3408,7 +3414,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>17</v>
@@ -3416,7 +3422,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>17</v>
@@ -3424,7 +3430,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>17</v>
@@ -3432,7 +3438,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>17</v>
@@ -3443,7 +3449,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>17</v>
@@ -3451,7 +3457,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>17</v>
@@ -3459,7 +3465,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>17</v>
@@ -3467,7 +3473,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>17</v>
@@ -3475,15 +3481,15 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>17</v>
@@ -3491,7 +3497,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>17</v>
@@ -3499,7 +3505,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>17</v>
@@ -3507,15 +3513,15 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>17</v>
@@ -3523,7 +3529,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>17</v>
@@ -3531,7 +3537,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>19</v>
@@ -3539,7 +3545,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>17</v>
@@ -3547,7 +3553,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>17</v>
@@ -3558,7 +3564,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>17</v>
@@ -3566,7 +3572,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>28</v>
@@ -3574,7 +3580,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>17</v>
@@ -3582,7 +3588,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>17</v>
@@ -3590,7 +3596,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>17</v>
@@ -3598,7 +3604,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>17</v>
@@ -3606,7 +3612,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>17</v>
@@ -3614,7 +3620,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>17</v>
@@ -3622,7 +3628,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>17</v>
@@ -3630,15 +3636,15 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>28</v>
@@ -3646,7 +3652,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>17</v>
@@ -3654,7 +3660,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>19</v>
@@ -3662,15 +3668,15 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>19</v>
@@ -3678,7 +3684,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>17</v>
@@ -3686,7 +3692,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>17</v>
@@ -3694,7 +3700,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>17</v>
@@ -3702,7 +3708,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>17</v>
@@ -3710,7 +3716,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>17</v>
@@ -3718,7 +3724,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>17</v>
@@ -3726,7 +3732,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>19</v>
@@ -3734,7 +3740,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>17</v>
@@ -3742,7 +3748,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>17</v>
@@ -3750,7 +3756,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>19</v>
@@ -3758,7 +3764,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>17</v>
@@ -3766,7 +3772,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>17</v>
@@ -3774,7 +3780,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>17</v>
@@ -3782,7 +3788,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>17</v>
@@ -3790,7 +3796,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>19</v>
@@ -3798,7 +3804,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>17</v>
@@ -3806,7 +3812,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>19</v>
@@ -3814,7 +3820,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>19</v>
@@ -3822,7 +3828,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>17</v>
@@ -3830,15 +3836,15 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>17</v>
@@ -3846,7 +3852,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>17</v>
@@ -3854,15 +3860,15 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>17</v>
@@ -3870,7 +3876,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>17</v>
@@ -3878,15 +3884,15 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>17</v>
@@ -3894,7 +3900,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>17</v>
@@ -3902,7 +3908,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>17</v>
@@ -3910,7 +3916,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>17</v>
@@ -3918,7 +3924,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>17</v>
@@ -3926,7 +3932,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>19</v>
@@ -3934,7 +3940,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>17</v>
@@ -3942,7 +3948,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>17</v>
@@ -3950,7 +3956,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>17</v>
@@ -3958,15 +3964,15 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>17</v>
@@ -3974,7 +3980,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>17</v>
@@ -3982,7 +3988,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>17</v>
@@ -3990,7 +3996,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>28</v>
@@ -3998,7 +4004,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>17</v>
@@ -4006,7 +4012,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>17</v>
@@ -4014,7 +4020,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>17</v>
@@ -4022,7 +4028,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>17</v>
@@ -4030,7 +4036,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>17</v>
@@ -4038,21 +4044,21 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>19</v>
@@ -4060,7 +4066,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>17</v>
@@ -4068,7 +4074,7 @@
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>17</v>
@@ -4076,7 +4082,7 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>19</v>
@@ -4084,7 +4090,7 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>17</v>
@@ -4092,7 +4098,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>17</v>
@@ -4100,7 +4106,7 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>19</v>
@@ -4108,7 +4114,7 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>17</v>
@@ -4116,7 +4122,7 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>17</v>
@@ -4124,7 +4130,7 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>17</v>
@@ -4132,7 +4138,7 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>17</v>
@@ -4140,7 +4146,7 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>17</v>
@@ -4148,7 +4154,7 @@
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>17</v>
@@ -4156,7 +4162,7 @@
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>19</v>
@@ -4164,7 +4170,7 @@
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>17</v>
@@ -4172,7 +4178,7 @@
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>28</v>
@@ -4180,7 +4186,7 @@
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>17</v>
@@ -4188,7 +4194,7 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>17</v>
@@ -4196,15 +4202,15 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>17</v>
@@ -4212,23 +4218,23 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>19</v>
@@ -4236,7 +4242,7 @@
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>17</v>
@@ -4244,15 +4250,15 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>19</v>
@@ -4260,7 +4266,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>19</v>
@@ -4268,15 +4274,15 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>17</v>
@@ -4284,15 +4290,15 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>19</v>
@@ -4300,7 +4306,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>17</v>
@@ -4308,7 +4314,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>17</v>
@@ -4316,7 +4322,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>17</v>
@@ -4324,15 +4330,15 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>17</v>
@@ -4340,7 +4346,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>19</v>
@@ -4348,7 +4354,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>19</v>
@@ -4356,7 +4362,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>17</v>
@@ -4364,7 +4370,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>19</v>
@@ -4372,7 +4378,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>17</v>
@@ -4380,15 +4386,15 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>17</v>
@@ -4396,7 +4402,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>19</v>
@@ -4404,7 +4410,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>17</v>
@@ -4412,23 +4418,23 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>17</v>
@@ -4436,15 +4442,15 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>19</v>
@@ -4452,7 +4458,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>17</v>
@@ -4460,7 +4466,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>17</v>
@@ -4468,7 +4474,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>17</v>
@@ -4476,7 +4482,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>17</v>
@@ -4484,7 +4490,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>17</v>
@@ -4492,7 +4498,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>17</v>
@@ -4500,7 +4506,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>19</v>
@@ -4508,7 +4514,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>17</v>
@@ -4516,7 +4522,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>17</v>
@@ -4524,7 +4530,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>17</v>
@@ -4532,7 +4538,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>17</v>
@@ -4540,7 +4546,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>17</v>
@@ -4548,7 +4554,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>17</v>
@@ -4556,7 +4562,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>17</v>
@@ -4564,7 +4570,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>19</v>
@@ -4572,7 +4578,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>17</v>
@@ -4580,7 +4586,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>17</v>
@@ -4588,7 +4594,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>17</v>
@@ -4596,7 +4602,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>17</v>
@@ -4604,7 +4610,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>17</v>
@@ -4612,7 +4618,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>17</v>
@@ -4620,7 +4626,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>17</v>
@@ -4628,15 +4634,15 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>17</v>
@@ -4644,7 +4650,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>17</v>
@@ -4652,7 +4658,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>19</v>
@@ -4660,15 +4666,15 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>19</v>
@@ -4676,7 +4682,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>17</v>
@@ -4684,7 +4690,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>17</v>
@@ -4692,7 +4698,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>17</v>
@@ -4700,7 +4706,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>19</v>
@@ -4708,18 +4714,18 @@
     </row>
     <row r="273" spans="1:6">
       <c r="A273" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>17</v>
@@ -4727,7 +4733,7 @@
     </row>
     <row r="275" spans="1:6">
       <c r="A275" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>17</v>
@@ -4735,7 +4741,7 @@
     </row>
     <row r="276" spans="1:6">
       <c r="A276" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>17</v>
@@ -4743,7 +4749,7 @@
     </row>
     <row r="277" spans="1:6">
       <c r="A277" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>17</v>
@@ -4751,7 +4757,7 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>17</v>
@@ -4759,7 +4765,7 @@
     </row>
     <row r="279" spans="1:6">
       <c r="A279" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>19</v>
@@ -4767,7 +4773,7 @@
     </row>
     <row r="280" spans="1:6">
       <c r="A280" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>17</v>
@@ -4775,7 +4781,7 @@
     </row>
     <row r="281" spans="1:6">
       <c r="A281" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>17</v>
@@ -4783,7 +4789,7 @@
     </row>
     <row r="282" spans="1:6">
       <c r="A282" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>17</v>
@@ -4791,7 +4797,7 @@
     </row>
     <row r="283" spans="1:6">
       <c r="A283" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>19</v>
@@ -4799,7 +4805,7 @@
     </row>
     <row r="284" spans="1:6">
       <c r="A284" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>17</v>
@@ -4807,7 +4813,7 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>17</v>
@@ -4815,7 +4821,7 @@
     </row>
     <row r="286" spans="1:6">
       <c r="A286" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>17</v>
@@ -4823,7 +4829,7 @@
     </row>
     <row r="287" spans="1:6">
       <c r="A287" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>17</v>
@@ -4831,7 +4837,7 @@
     </row>
     <row r="288" spans="1:6">
       <c r="A288" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>17</v>
@@ -4839,7 +4845,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>17</v>
@@ -4847,7 +4853,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>17</v>
@@ -4855,15 +4861,15 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>17</v>
@@ -4871,7 +4877,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>17</v>
@@ -4879,7 +4885,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>17</v>
@@ -4887,7 +4893,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>17</v>
@@ -4895,7 +4901,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>17</v>
@@ -4903,7 +4909,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>17</v>
@@ -4911,7 +4917,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>17</v>
@@ -4919,7 +4925,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>17</v>
@@ -4927,15 +4933,15 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>17</v>
@@ -4943,7 +4949,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>17</v>
@@ -4951,7 +4957,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>17</v>
@@ -4959,7 +4965,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>17</v>
@@ -4967,7 +4973,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>17</v>
@@ -4975,7 +4981,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>17</v>
@@ -4983,7 +4989,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>17</v>
@@ -4991,7 +4997,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>17</v>
@@ -4999,7 +5005,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>17</v>
@@ -5007,7 +5013,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>17</v>
@@ -5015,7 +5021,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>17</v>
@@ -5023,7 +5029,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>19</v>
@@ -5031,7 +5037,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>17</v>
@@ -5039,7 +5045,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>17</v>
@@ -5047,7 +5053,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>17</v>
@@ -5055,7 +5061,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>17</v>
@@ -5063,7 +5069,7 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>17</v>
@@ -5071,7 +5077,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>17</v>
@@ -5079,7 +5085,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>17</v>
@@ -5087,7 +5093,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>17</v>
@@ -5095,7 +5101,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D321" s="3" t="s">
         <v>17</v>
@@ -5103,7 +5109,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>17</v>
@@ -5111,7 +5117,7 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>19</v>
@@ -5119,7 +5125,7 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>17</v>
@@ -5127,7 +5133,7 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>17</v>
@@ -5135,7 +5141,7 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>17</v>
@@ -5143,7 +5149,7 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>17</v>
@@ -5151,7 +5157,7 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>17</v>
@@ -5159,7 +5165,7 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>17</v>
@@ -5167,7 +5173,7 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>17</v>
@@ -5175,7 +5181,7 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>17</v>
@@ -5183,7 +5189,7 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>19</v>
@@ -5191,7 +5197,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>17</v>
@@ -5199,7 +5205,7 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>17</v>
@@ -5207,7 +5213,7 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>17</v>
@@ -5215,7 +5221,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>17</v>
@@ -5223,7 +5229,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>17</v>
@@ -5231,7 +5237,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>17</v>
@@ -5239,7 +5245,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>17</v>
@@ -5247,7 +5253,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>17</v>
@@ -5255,7 +5261,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>17</v>
@@ -5263,7 +5269,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>17</v>
@@ -5271,7 +5277,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>17</v>
@@ -5279,7 +5285,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>17</v>
@@ -5287,7 +5293,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>17</v>
@@ -5295,7 +5301,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>17</v>
@@ -5303,7 +5309,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>17</v>
@@ -5311,7 +5317,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>17</v>
@@ -5319,7 +5325,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>17</v>
@@ -5327,7 +5333,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>19</v>
@@ -5335,7 +5341,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>17</v>
@@ -5343,7 +5349,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>17</v>
@@ -5351,7 +5357,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>19</v>
@@ -5359,7 +5365,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>19</v>
@@ -5367,7 +5373,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>17</v>
@@ -5375,7 +5381,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>17</v>
@@ -5383,7 +5389,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>17</v>
@@ -5391,10 +5397,10 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>384</v>
+        <v>38</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -5402,7 +5408,7 @@
         <v>385</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>384</v>
+        <v>38</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -5418,7 +5424,7 @@
         <v>387</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -5541,7 +5547,7 @@
         <v>402</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -5776,7 +5782,7 @@
         <v>431</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5800,7 +5806,7 @@
         <v>434</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5952,7 +5958,7 @@
         <v>454</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -6080,7 +6086,7 @@
         <v>470</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>384</v>
+        <v>38</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -6256,7 +6262,7 @@
         <v>493</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -6312,7 +6318,7 @@
         <v>500</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -6368,7 +6374,7 @@
         <v>509</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -6376,7 +6382,7 @@
         <v>510</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -6384,7 +6390,7 @@
         <v>511</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -6456,7 +6462,7 @@
         <v>521</v>
       </c>
       <c r="D490" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -6464,7 +6470,7 @@
         <v>522</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -6480,7 +6486,7 @@
         <v>524</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -6496,7 +6502,7 @@
         <v>526</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -6520,7 +6526,7 @@
         <v>529</v>
       </c>
       <c r="D498" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -6576,7 +6582,7 @@
         <v>536</v>
       </c>
       <c r="D505" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -6584,7 +6590,7 @@
         <v>537</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -6592,7 +6598,7 @@
         <v>538</v>
       </c>
       <c r="D507" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -6656,7 +6662,7 @@
         <v>547</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -6680,7 +6686,7 @@
         <v>550</v>
       </c>
       <c r="E518" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -6704,7 +6710,7 @@
         <v>553</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -6753,10 +6759,10 @@
         <v>558</v>
       </c>
       <c r="D526" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E526" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -6781,7 +6787,7 @@
         <v>17</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D528" s="3" t="s">
         <v>19</v>
@@ -6806,7 +6812,7 @@
         <v>562</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -6828,7 +6834,7 @@
         <v>17</v>
       </c>
       <c r="E532" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -6836,10 +6842,10 @@
         <v>565</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D533" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E533" s="4" t="s">
         <v>519</v>
@@ -6856,7 +6862,7 @@
         <v>17</v>
       </c>
       <c r="E534" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -6886,10 +6892,10 @@
         <v>569</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D537" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -6933,7 +6939,7 @@
         <v>573</v>
       </c>
       <c r="D541" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -6949,7 +6955,7 @@
         <v>575</v>
       </c>
       <c r="D543" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -6981,7 +6987,7 @@
         <v>579</v>
       </c>
       <c r="D547" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="548" spans="1:6">
@@ -7003,7 +7009,7 @@
         <v>19</v>
       </c>
       <c r="D549" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="550" spans="1:6">
@@ -7022,7 +7028,7 @@
         <v>583</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D551" s="4" t="s">
         <v>584</v>
@@ -7047,7 +7053,7 @@
         <v>586</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D553" s="3" t="s">
         <v>19</v>
@@ -7067,7 +7073,7 @@
         <v>19</v>
       </c>
       <c r="E554" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="555" spans="1:6">
@@ -7075,7 +7081,7 @@
         <v>588</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="556" spans="1:6">
@@ -7100,7 +7106,7 @@
         <v>590</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C557" s="3" t="s">
         <v>17</v>
@@ -7148,7 +7154,7 @@
         <v>17</v>
       </c>
       <c r="D560" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -7167,7 +7173,7 @@
         <v>595</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D562" s="3" t="s">
         <v>17</v>
@@ -7201,7 +7207,7 @@
         <v>17</v>
       </c>
       <c r="E564" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -7253,7 +7259,7 @@
         <v>602</v>
       </c>
       <c r="C569" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -7275,7 +7281,7 @@
         <v>17</v>
       </c>
       <c r="E571" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -7286,7 +7292,7 @@
         <v>519</v>
       </c>
       <c r="E572" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -7294,7 +7300,7 @@
         <v>606</v>
       </c>
       <c r="E573" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -7302,7 +7308,7 @@
         <v>607</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -7310,7 +7316,7 @@
         <v>608</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -7350,7 +7356,7 @@
         <v>613</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="581" spans="1:6">
@@ -7358,7 +7364,7 @@
         <v>614</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -7374,7 +7380,7 @@
         <v>616</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E583" s="3" t="s">
         <v>617</v>
@@ -7388,7 +7394,7 @@
         <v>619</v>
       </c>
       <c r="D584" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E584" s="3" t="s">
         <v>19</v>
@@ -7514,7 +7520,7 @@
         <v>635</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -7538,7 +7544,7 @@
         <v>638</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -7554,7 +7560,7 @@
         <v>641</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -7573,7 +7579,7 @@
         <v>643</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="607" spans="1:4">
@@ -7637,7 +7643,7 @@
         <v>651</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -7725,7 +7731,7 @@
         <v>664</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -7757,7 +7763,7 @@
         <v>670</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="630" spans="1:4">

--- a/groups/24-25-Univers/codeforces_results.xlsx
+++ b/groups/24-25-Univers/codeforces_results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$D$626</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$F$638</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="680">
   <si>
     <t>№</t>
   </si>
@@ -25,24 +25,36 @@
     <t>Шестаков Вячеслав</t>
   </si>
   <si>
+    <t>Шатохин Данил</t>
+  </si>
+  <si>
     <t>Ченченко Даниил</t>
   </si>
   <si>
     <t>Поддубецкий Антон</t>
   </si>
   <si>
+    <t>Костюнин Егор</t>
+  </si>
+  <si>
     <t>Хендл</t>
   </si>
   <si>
     <t>slavashestakov2005</t>
   </si>
   <si>
+    <t>DanilGoose</t>
+  </si>
+  <si>
     <t>pchelka12</t>
   </si>
   <si>
     <t>a_ntony</t>
   </si>
   <si>
+    <t>kjuby</t>
+  </si>
+  <si>
     <t>Рейтинг</t>
   </si>
   <si>
@@ -121,6 +133,9 @@
     <t>52C</t>
   </si>
   <si>
+    <t>1+, 5-</t>
+  </si>
+  <si>
     <t>1+, 2-</t>
   </si>
   <si>
@@ -673,6 +688,9 @@
     <t>1068B</t>
   </si>
   <si>
+    <t>1071D</t>
+  </si>
+  <si>
     <t>1097A</t>
   </si>
   <si>
@@ -697,6 +715,9 @@
     <t>1166A</t>
   </si>
   <si>
+    <t>1182A</t>
+  </si>
+  <si>
     <t>1185B</t>
   </si>
   <si>
@@ -898,6 +919,9 @@
     <t>1355B</t>
   </si>
   <si>
+    <t>1+, 10-</t>
+  </si>
+  <si>
     <t>1358A</t>
   </si>
   <si>
@@ -1153,9 +1177,6 @@
     <t>1583A</t>
   </si>
   <si>
-    <t>1+, 5-</t>
-  </si>
-  <si>
     <t>1583B</t>
   </si>
   <si>
@@ -1555,6 +1576,12 @@
     <t>1850E</t>
   </si>
   <si>
+    <t>1857C</t>
+  </si>
+  <si>
+    <t>5-</t>
+  </si>
+  <si>
     <t>1866A</t>
   </si>
   <si>
@@ -1576,6 +1603,9 @@
     <t>1935F</t>
   </si>
   <si>
+    <t>1941B</t>
+  </si>
+  <si>
     <t>1948A</t>
   </si>
   <si>
@@ -1603,6 +1633,9 @@
     <t>1982C</t>
   </si>
   <si>
+    <t>1999B</t>
+  </si>
+  <si>
     <t>2005A</t>
   </si>
   <si>
@@ -1630,6 +1663,12 @@
     <t>6-</t>
   </si>
   <si>
+    <t>2020B</t>
+  </si>
+  <si>
+    <t>2023A</t>
+  </si>
+  <si>
     <t>2028A</t>
   </si>
   <si>
@@ -1672,15 +1711,15 @@
     <t>2037D</t>
   </si>
   <si>
+    <t>2038J</t>
+  </si>
+  <si>
     <t>2039A</t>
   </si>
   <si>
     <t>2039B</t>
   </si>
   <si>
-    <t>5-</t>
-  </si>
-  <si>
     <t>2039C1</t>
   </si>
   <si>
@@ -1747,6 +1786,9 @@
     <t>2048C</t>
   </si>
   <si>
+    <t>2048D</t>
+  </si>
+  <si>
     <t>2050A</t>
   </si>
   <si>
@@ -1780,6 +1822,15 @@
     <t>2051E</t>
   </si>
   <si>
+    <t>2053A</t>
+  </si>
+  <si>
+    <t>2053B</t>
+  </si>
+  <si>
+    <t>2053C</t>
+  </si>
+  <si>
     <t>2057A</t>
   </si>
   <si>
@@ -1823,6 +1874,9 @@
   </si>
   <si>
     <t>1+, 8-</t>
+  </si>
+  <si>
+    <t>7-</t>
   </si>
   <si>
     <t>100168B</t>
@@ -2368,7 +2422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D626"/>
+  <dimension ref="A1:F638"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2377,10 +2431,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="10.7109375" customWidth="1"/>
+    <col min="1" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2393,5786 +2447,6040 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1743</v>
       </c>
       <c r="C3">
+        <v>1339</v>
+      </c>
+      <c r="D3">
         <v>1232</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1189</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="F3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C4">
+        <v>86</v>
+      </c>
+      <c r="D4">
         <v>164</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>518</v>
       </c>
       <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5">
         <v>77</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>62</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>90</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>13</v>
+        <v>97</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>138</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>15</v>
+        <v>164</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>184</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>186</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B221" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B168" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B212" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B218" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>61</v>
+        <v>247</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B226" s="3" t="s">
-        <v>15</v>
+        <v>249</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>61</v>
+        <v>254</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>15</v>
+        <v>256</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>134</v>
+        <v>258</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>255</v>
+        <v>17</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>13</v>
+        <v>260</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>34</v>
+        <v>262</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>282</v>
+        <v>17</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>13</v>
+        <v>289</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
+        <v>189</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277" s="2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281" s="2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284" s="2" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B290" s="4" t="s">
-        <v>61</v>
+        <v>316</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>13</v>
+        <v>318</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
       <c r="A305" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
       <c r="A306" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
       <c r="A307" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
       <c r="A308" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
       <c r="A309" s="2" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
       <c r="A310" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
       <c r="A311" s="2" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
       <c r="A312" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
       <c r="A313" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
       <c r="A314" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
       <c r="A315" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
       <c r="A316" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
       <c r="A317" s="2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
       <c r="A318" s="2" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
       <c r="A319" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
       <c r="A320" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2">
+        <v>346</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
       <c r="A321" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
       <c r="A322" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B322" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2">
+        <v>348</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
       <c r="A323" s="2" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
       <c r="A324" s="2" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
       <c r="A325" s="2" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
       <c r="A326" s="2" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
       <c r="A327" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
       <c r="A328" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
       <c r="A329" s="2" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
       <c r="A330" s="2" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
       <c r="A331" s="2" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
       <c r="A332" s="2" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
       <c r="A333" s="2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
       <c r="A334" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
       <c r="A335" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
       <c r="A336" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="2" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="2" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="2" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="2" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="2" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="2" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="2" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="2" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="2" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="2" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>378</v>
+        <v>17</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="2" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>378</v>
+        <v>17</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="2" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="2" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="2" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="2" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="2" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="2" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="2" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="2" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
       <c r="A369" s="2" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
       <c r="A370" s="2" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
       <c r="A371" s="2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
       <c r="A372" s="2" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D372" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
       <c r="A373" s="2" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
       <c r="A374" s="2" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
       <c r="A375" s="2" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
       <c r="A376" s="2" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
       <c r="A377" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
       <c r="A378" s="2" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
       <c r="A379" s="2" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
       <c r="A380" s="2" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
       <c r="A381" s="2" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
       <c r="A382" s="2" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
       <c r="A383" s="2" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
       <c r="A384" s="2" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
       <c r="A385" s="2" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
       <c r="A386" s="2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
       <c r="A387" s="2" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
       <c r="A388" s="2" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
       <c r="A389" s="2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
       <c r="A390" s="2" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
       <c r="A391" s="2" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
       <c r="A392" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
       <c r="A393" s="2" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
       <c r="A394" s="2" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
       <c r="A395" s="2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
       <c r="A396" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
       <c r="A397" s="2" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
       <c r="A398" s="2" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
       <c r="A399" s="2" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
       <c r="A400" s="2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="2" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="2" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="2" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="2" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="2" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="2" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="2" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="2" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="2" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="2" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="2" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="2" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="2" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="2" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="2" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="2" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="2" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="2" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="2" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>444</v>
+        <v>17</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>13</v>
+        <v>451</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="2" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B426" s="4" t="s">
-        <v>180</v>
+        <v>453</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="2" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B428" s="3" t="s">
-        <v>13</v>
+        <v>455</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" s="2" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" s="2" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" s="2" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" s="2" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
       <c r="A433" s="2" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
       <c r="A434" s="2" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
       <c r="A435" s="2" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
       <c r="A436" s="2" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
       <c r="A437" s="2" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
       <c r="A438" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C438" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3">
+        <v>465</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
       <c r="A439" s="2" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
       <c r="A440" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B440" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3">
+        <v>467</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
       <c r="A441" s="2" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
       <c r="A442" s="2" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
       <c r="A443" s="2" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
       <c r="A444" s="2" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
       <c r="A445" s="2" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
       <c r="A446" s="2" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
       <c r="A447" s="2" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
       <c r="A448" s="2" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" s="2" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" s="2" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" s="2" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" s="2" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" s="2" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" s="2" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" s="2" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" s="2" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" s="2" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" s="2" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" s="2" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" s="2" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" s="2" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" s="2" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" s="2" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>486</v>
+        <v>17</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
       <c r="A465" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
       <c r="A466" s="2" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
       <c r="A467" s="2" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
       <c r="A468" s="2" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
       <c r="A469" s="2" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
       <c r="A470" s="2" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
       <c r="A471" s="2" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
       <c r="A472" s="2" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
       <c r="A473" s="2" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
       <c r="A474" s="2" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
       <c r="A475" s="2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
       <c r="A476" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
       <c r="A477" s="2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
       <c r="A478" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B478" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3">
+        <v>508</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
       <c r="A479" s="2" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
       <c r="A480" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C480" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3">
+        <v>510</v>
+      </c>
+      <c r="B480" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6">
       <c r="A481" s="2" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6">
       <c r="A482" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B482" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3">
+        <v>512</v>
+      </c>
+      <c r="D482" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6">
       <c r="A483" s="2" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6">
       <c r="A484" s="2" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6">
       <c r="A485" s="2" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6">
       <c r="A486" s="2" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6">
       <c r="A487" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C487" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3">
+        <v>517</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6">
       <c r="A488" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C488" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3">
+        <v>518</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6">
       <c r="A489" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B489" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3">
+        <v>519</v>
+      </c>
+      <c r="F489" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6">
       <c r="A490" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="B490" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3">
+        <v>521</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6">
       <c r="A491" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="B491" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3">
+        <v>522</v>
+      </c>
+      <c r="D491" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6">
       <c r="A492" s="2" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="493" spans="1:3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6">
       <c r="A493" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="B493" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3">
+        <v>524</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6">
       <c r="A494" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3">
+        <v>525</v>
+      </c>
+      <c r="B494" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6">
       <c r="A495" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C495" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3">
+        <v>526</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6">
       <c r="A496" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C496" s="3" t="s">
-        <v>13</v>
+        <v>527</v>
+      </c>
+      <c r="B496" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="2" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C498" s="3" t="s">
-        <v>13</v>
+        <v>529</v>
+      </c>
+      <c r="D498" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="C499" s="3" t="s">
-        <v>13</v>
+        <v>530</v>
+      </c>
+      <c r="D499" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C500" s="3" t="s">
-        <v>13</v>
+        <v>531</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C501" s="3" t="s">
-        <v>13</v>
+        <v>532</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C502" s="4" t="s">
-        <v>61</v>
+        <v>533</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C503" s="3" t="s">
-        <v>34</v>
+        <v>534</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="C504" s="3" t="s">
-        <v>486</v>
+        <v>535</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C505" s="3" t="s">
-        <v>13</v>
+        <v>536</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="C506" s="3" t="s">
-        <v>13</v>
+        <v>537</v>
+      </c>
+      <c r="D506" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="2" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C508" s="3" t="s">
-        <v>13</v>
+        <v>539</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C509" s="3" t="s">
-        <v>15</v>
+        <v>540</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C510" s="4" t="s">
-        <v>536</v>
+        <v>541</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="2" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D511" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="D512" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4">
+        <v>543</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
       <c r="A513" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="B513" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4">
+        <v>544</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
       <c r="A514" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="B514" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4">
+        <v>545</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
       <c r="A515" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B515" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4">
+        <v>546</v>
+      </c>
+      <c r="D515" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
       <c r="A516" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="B516" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="517" spans="1:4">
+        <v>548</v>
+      </c>
+      <c r="C516" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
       <c r="A517" s="2" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D517" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="518" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
       <c r="A518" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="C518" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D518" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="519" spans="1:4">
+        <v>550</v>
+      </c>
+      <c r="E518" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
       <c r="A519" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C519" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D519" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="520" spans="1:4">
+        <v>551</v>
+      </c>
+      <c r="E519" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5">
       <c r="A520" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C520" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D520" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4">
+        <v>552</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
       <c r="A521" s="2" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C521" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
       <c r="A522" s="2" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C522" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
       <c r="A523" s="2" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C523" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
       <c r="A524" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B524" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4">
+        <v>556</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E524" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5">
       <c r="A525" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="C525" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D525" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="526" spans="1:4">
+        <v>557</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E525" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5">
       <c r="A526" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="C526" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D526" s="4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4">
+        <v>558</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E526" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
       <c r="A527" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C527" s="3" t="s">
-        <v>13</v>
+        <v>559</v>
       </c>
       <c r="D527" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="528" spans="1:4">
+        <v>79</v>
+      </c>
+      <c r="E527" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5">
       <c r="A528" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5">
       <c r="A529" s="2" t="s">
-        <v>556</v>
+        <v>561</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3">
+        <v>39</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
       <c r="A530" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C530" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3">
+        <v>562</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5">
       <c r="A531" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="B531" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C531" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3">
+        <v>563</v>
+      </c>
+      <c r="B531" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
       <c r="A532" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="B532" s="3" t="s">
-        <v>13</v>
+        <v>564</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
       <c r="A533" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="B533" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3">
+        <v>565</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E533" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5">
       <c r="A534" s="2" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="535" spans="1:3">
+        <v>39</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E534" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5">
       <c r="A535" s="2" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E535" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5">
       <c r="A536" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C536" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3">
+        <v>568</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5">
       <c r="A537" s="2" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5">
       <c r="A538" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="C538" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3">
+        <v>570</v>
+      </c>
+      <c r="C538" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D538" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
       <c r="A539" s="2" t="s">
-        <v>566</v>
+        <v>571</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5">
       <c r="A540" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C540" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3">
+        <v>572</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
       <c r="A541" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C541" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3">
+        <v>573</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5">
       <c r="A542" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="C542" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3">
+        <v>574</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5">
       <c r="A543" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="C543" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3">
+        <v>575</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5">
       <c r="A544" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C544" s="4" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="545" spans="1:4">
+        <v>576</v>
+      </c>
+      <c r="D544" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6">
       <c r="A545" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C545" s="3" t="s">
-        <v>13</v>
+        <v>577</v>
       </c>
       <c r="D545" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="546" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6">
       <c r="A546" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C546" s="3" t="s">
-        <v>15</v>
+        <v>578</v>
       </c>
       <c r="D546" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="547" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6">
       <c r="A547" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="C547" s="3" t="s">
-        <v>15</v>
+        <v>579</v>
       </c>
       <c r="D547" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="548" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6">
       <c r="A548" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="B548" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C548" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="549" spans="1:4">
+        <v>580</v>
+      </c>
+      <c r="D548" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6">
       <c r="A549" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="B549" s="4" t="s">
-        <v>61</v>
+        <v>581</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="550" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6">
       <c r="A550" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="B550" s="3" t="s">
-        <v>13</v>
+        <v>582</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="551" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6">
       <c r="A551" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="B551" s="3" t="s">
-        <v>13</v>
+        <v>583</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="552" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6">
       <c r="A552" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="B552" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C552" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="553" spans="1:4">
+        <v>584</v>
+      </c>
+      <c r="C552" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D552" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6">
       <c r="A553" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="B553" s="3" t="s">
-        <v>13</v>
+        <v>586</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="554" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E553" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6">
       <c r="A554" s="2" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D554" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="555" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6">
       <c r="A555" s="2" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E555" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6">
       <c r="A556" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="C556" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D556" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="557" spans="1:4">
+        <v>589</v>
+      </c>
+      <c r="C556" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6">
       <c r="A557" s="2" t="s">
-        <v>585</v>
+        <v>590</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D557" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="558" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="F557" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6">
       <c r="A558" s="2" t="s">
-        <v>586</v>
+        <v>591</v>
+      </c>
+      <c r="B558" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="559" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6">
       <c r="A559" s="2" t="s">
-        <v>587</v>
+        <v>592</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D559" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="560" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6">
       <c r="A560" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="D560" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="561" spans="1:4">
+        <v>593</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5">
       <c r="A561" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="D561" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="562" spans="1:4">
+        <v>594</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5">
       <c r="A562" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="D562" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="563" spans="1:4">
+        <v>595</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D562" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5">
       <c r="A563" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="B563" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="564" spans="1:4">
+        <v>596</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E563" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5">
       <c r="A564" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="B564" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="565" spans="1:4">
+        <v>597</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5">
       <c r="A565" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="B565" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="566" spans="1:4">
+        <v>598</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E565" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5">
       <c r="A566" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B566" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4">
+        <v>599</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D566" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E566" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5">
       <c r="A567" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="B567" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4">
+        <v>600</v>
+      </c>
+      <c r="C567" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D567" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E567" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5">
       <c r="A568" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B568" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="569" spans="1:4">
+        <v>601</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5">
       <c r="A569" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="B569" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4">
+        <v>602</v>
+      </c>
+      <c r="C569" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5">
       <c r="A570" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="B570" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4">
+        <v>603</v>
+      </c>
+      <c r="C570" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5">
       <c r="A571" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="B571" s="4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4">
+        <v>604</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E571" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5">
       <c r="A572" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D572" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="573" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E572" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5">
       <c r="A573" s="2" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D573" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="574" spans="1:4">
+        <v>520</v>
+      </c>
+      <c r="E573" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5">
       <c r="A574" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="D574" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4">
+        <v>607</v>
+      </c>
+      <c r="E574" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5">
       <c r="A575" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="D575" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4">
+        <v>608</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5">
       <c r="A576" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="D576" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4">
+        <v>609</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6">
       <c r="A577" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="D577" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="578" spans="1:4">
+        <v>610</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6">
       <c r="A578" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="D578" s="4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="579" spans="1:4">
+        <v>611</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6">
       <c r="A579" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D579" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="580" spans="1:4">
+        <v>612</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6">
       <c r="A580" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="D580" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="581" spans="1:4">
+        <v>613</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6">
       <c r="A581" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="582" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6">
       <c r="A582" s="2" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6">
       <c r="A583" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="B583" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4">
+        <v>616</v>
+      </c>
+      <c r="B583" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6">
       <c r="A584" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="B584" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="585" spans="1:4">
+        <v>617</v>
+      </c>
+      <c r="D584" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E584" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F584" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6">
       <c r="A585" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B585" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="586" spans="1:4">
+        <v>620</v>
+      </c>
+      <c r="D585" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E585" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6">
       <c r="A586" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="B586" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="587" spans="1:4">
+        <v>621</v>
+      </c>
+      <c r="E586" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6">
       <c r="A587" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="B587" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4">
+        <v>622</v>
+      </c>
+      <c r="E587" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6">
       <c r="A588" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="B588" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4">
+        <v>623</v>
+      </c>
+      <c r="E588" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F588" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6">
       <c r="A589" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B589" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="590" spans="1:4">
+        <v>624</v>
+      </c>
+      <c r="E589" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6">
       <c r="A590" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="B590" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="591" spans="1:4">
+        <v>626</v>
+      </c>
+      <c r="E590" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6">
       <c r="A591" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="B591" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="592" spans="1:4">
+        <v>627</v>
+      </c>
+      <c r="E591" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6">
       <c r="A592" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="B592" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="593" spans="1:3">
+        <v>628</v>
+      </c>
+      <c r="E592" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4">
       <c r="A593" s="2" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="594" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4">
       <c r="A594" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4">
+      <c r="A595" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4">
+      <c r="A596" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4">
+      <c r="A597" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4">
+      <c r="A598" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4">
+      <c r="A599" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4">
+      <c r="A600" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4">
+      <c r="A601" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4">
+      <c r="A602" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4">
+      <c r="A603" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4">
+      <c r="A604" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4">
+      <c r="A605" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4">
+      <c r="A606" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D606" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4">
+      <c r="A607" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4">
+      <c r="A608" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B617" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="B594" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="C594" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="595" spans="1:3">
-      <c r="A595" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B595" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="596" spans="1:3">
-      <c r="A596" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="B596" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="597" spans="1:3">
-      <c r="A597" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="B597" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="598" spans="1:3">
-      <c r="A598" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="B598" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="599" spans="1:3">
-      <c r="A599" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="B599" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="600" spans="1:3">
-      <c r="A600" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="B600" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="601" spans="1:3">
-      <c r="A601" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="B601" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="602" spans="1:3">
-      <c r="A602" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B602" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="603" spans="1:3">
-      <c r="A603" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="B603" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="604" spans="1:3">
-      <c r="A604" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="B604" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="605" spans="1:3">
-      <c r="A605" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B605" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="606" spans="1:3">
-      <c r="A606" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="B606" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="607" spans="1:3">
-      <c r="A607" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="B607" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="608" spans="1:3">
-      <c r="A608" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="B608" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="609" spans="1:3">
-      <c r="A609" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="B609" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="610" spans="1:3">
-      <c r="A610" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="B610" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3">
-      <c r="A611" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="B611" s="3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3">
-      <c r="A612" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="B612" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3">
-      <c r="A613" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="B613" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3">
-      <c r="A614" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="B614" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="615" spans="1:3">
-      <c r="A615" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="B615" s="3" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="616" spans="1:3">
-      <c r="A616" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="B616" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="617" spans="1:3">
-      <c r="A617" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="B617" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="618" spans="1:3">
+    </row>
+    <row r="618" spans="1:2">
       <c r="A618" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
       <c r="A619" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
       <c r="A620" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="621" spans="1:3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
       <c r="A621" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="C621" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3">
+        <v>658</v>
+      </c>
+      <c r="B621" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
       <c r="A622" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="C622" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="623" spans="1:3">
+        <v>659</v>
+      </c>
+      <c r="B622" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
       <c r="A623" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="C623" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3">
+        <v>660</v>
+      </c>
+      <c r="B623" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
       <c r="A624" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="C624" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3">
+        <v>662</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4">
       <c r="A625" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="C625" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3">
+        <v>663</v>
+      </c>
+      <c r="B625" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4">
       <c r="A626" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="C626" s="3" t="s">
-        <v>13</v>
+        <v>665</v>
+      </c>
+      <c r="B626" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4">
+      <c r="A627" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B627" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4">
+      <c r="A628" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B628" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4">
+      <c r="A629" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B629" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4">
+      <c r="A630" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B630" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4">
+      <c r="A631" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B631" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4">
+      <c r="A632" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B632" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4">
+      <c r="A633" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D633" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4">
+      <c r="A634" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D634" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4">
+      <c r="A635" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="D635" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4">
+      <c r="A636" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D636" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4">
+      <c r="A637" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D637" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4">
+      <c r="A638" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D638" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D626"/>
+  <autoFilter ref="A1:F638"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A8" r:id="rId5"/>
-    <hyperlink ref="A9" r:id="rId6"/>
-    <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="A11" r:id="rId8"/>
-    <hyperlink ref="A12" r:id="rId9"/>
-    <hyperlink ref="A13" r:id="rId10"/>
-    <hyperlink ref="A14" r:id="rId11"/>
-    <hyperlink ref="A15" r:id="rId12"/>
-    <hyperlink ref="A16" r:id="rId13"/>
-    <hyperlink ref="A17" r:id="rId14"/>
-    <hyperlink ref="A18" r:id="rId15"/>
-    <hyperlink ref="A19" r:id="rId16"/>
-    <hyperlink ref="A20" r:id="rId17"/>
-    <hyperlink ref="A21" r:id="rId18"/>
-    <hyperlink ref="A22" r:id="rId19"/>
-    <hyperlink ref="A23" r:id="rId20"/>
-    <hyperlink ref="A24" r:id="rId21"/>
-    <hyperlink ref="A25" r:id="rId22"/>
-    <hyperlink ref="A26" r:id="rId23"/>
-    <hyperlink ref="A27" r:id="rId24"/>
-    <hyperlink ref="A28" r:id="rId25"/>
-    <hyperlink ref="A29" r:id="rId26"/>
-    <hyperlink ref="A30" r:id="rId27"/>
-    <hyperlink ref="A31" r:id="rId28"/>
-    <hyperlink ref="A32" r:id="rId29"/>
-    <hyperlink ref="A33" r:id="rId30"/>
-    <hyperlink ref="A34" r:id="rId31"/>
-    <hyperlink ref="A35" r:id="rId32"/>
-    <hyperlink ref="A36" r:id="rId33"/>
-    <hyperlink ref="A37" r:id="rId34"/>
-    <hyperlink ref="A38" r:id="rId35"/>
-    <hyperlink ref="A39" r:id="rId36"/>
-    <hyperlink ref="A40" r:id="rId37"/>
-    <hyperlink ref="A41" r:id="rId38"/>
-    <hyperlink ref="A42" r:id="rId39"/>
-    <hyperlink ref="A43" r:id="rId40"/>
-    <hyperlink ref="A44" r:id="rId41"/>
-    <hyperlink ref="A45" r:id="rId42"/>
-    <hyperlink ref="A46" r:id="rId43"/>
-    <hyperlink ref="A47" r:id="rId44"/>
-    <hyperlink ref="A48" r:id="rId45"/>
-    <hyperlink ref="A49" r:id="rId46"/>
-    <hyperlink ref="A50" r:id="rId47"/>
-    <hyperlink ref="A51" r:id="rId48"/>
-    <hyperlink ref="A52" r:id="rId49"/>
-    <hyperlink ref="A53" r:id="rId50"/>
-    <hyperlink ref="A54" r:id="rId51"/>
-    <hyperlink ref="A55" r:id="rId52"/>
-    <hyperlink ref="A56" r:id="rId53"/>
-    <hyperlink ref="A57" r:id="rId54"/>
-    <hyperlink ref="A58" r:id="rId55"/>
-    <hyperlink ref="A59" r:id="rId56"/>
-    <hyperlink ref="A60" r:id="rId57"/>
-    <hyperlink ref="A61" r:id="rId58"/>
-    <hyperlink ref="A62" r:id="rId59"/>
-    <hyperlink ref="A63" r:id="rId60"/>
-    <hyperlink ref="A64" r:id="rId61"/>
-    <hyperlink ref="A65" r:id="rId62"/>
-    <hyperlink ref="A66" r:id="rId63"/>
-    <hyperlink ref="A67" r:id="rId64"/>
-    <hyperlink ref="A68" r:id="rId65"/>
-    <hyperlink ref="A69" r:id="rId66"/>
-    <hyperlink ref="A70" r:id="rId67"/>
-    <hyperlink ref="A71" r:id="rId68"/>
-    <hyperlink ref="A72" r:id="rId69"/>
-    <hyperlink ref="A73" r:id="rId70"/>
-    <hyperlink ref="A74" r:id="rId71"/>
-    <hyperlink ref="A75" r:id="rId72"/>
-    <hyperlink ref="A76" r:id="rId73"/>
-    <hyperlink ref="A77" r:id="rId74"/>
-    <hyperlink ref="A78" r:id="rId75"/>
-    <hyperlink ref="A79" r:id="rId76"/>
-    <hyperlink ref="A80" r:id="rId77"/>
-    <hyperlink ref="A81" r:id="rId78"/>
-    <hyperlink ref="A82" r:id="rId79"/>
-    <hyperlink ref="A83" r:id="rId80"/>
-    <hyperlink ref="A84" r:id="rId81"/>
-    <hyperlink ref="A85" r:id="rId82"/>
-    <hyperlink ref="A86" r:id="rId83"/>
-    <hyperlink ref="A87" r:id="rId84"/>
-    <hyperlink ref="A88" r:id="rId85"/>
-    <hyperlink ref="A89" r:id="rId86"/>
-    <hyperlink ref="A90" r:id="rId87"/>
-    <hyperlink ref="A91" r:id="rId88"/>
-    <hyperlink ref="A92" r:id="rId89"/>
-    <hyperlink ref="A93" r:id="rId90"/>
-    <hyperlink ref="A94" r:id="rId91"/>
-    <hyperlink ref="A95" r:id="rId92"/>
-    <hyperlink ref="A96" r:id="rId93"/>
-    <hyperlink ref="A97" r:id="rId94"/>
-    <hyperlink ref="A98" r:id="rId95"/>
-    <hyperlink ref="A99" r:id="rId96"/>
-    <hyperlink ref="A100" r:id="rId97"/>
-    <hyperlink ref="A101" r:id="rId98"/>
-    <hyperlink ref="A102" r:id="rId99"/>
-    <hyperlink ref="A103" r:id="rId100"/>
-    <hyperlink ref="A104" r:id="rId101"/>
-    <hyperlink ref="A105" r:id="rId102"/>
-    <hyperlink ref="A106" r:id="rId103"/>
-    <hyperlink ref="A107" r:id="rId104"/>
-    <hyperlink ref="A108" r:id="rId105"/>
-    <hyperlink ref="A109" r:id="rId106"/>
-    <hyperlink ref="A110" r:id="rId107"/>
-    <hyperlink ref="A111" r:id="rId108"/>
-    <hyperlink ref="A112" r:id="rId109"/>
-    <hyperlink ref="A113" r:id="rId110"/>
-    <hyperlink ref="A114" r:id="rId111"/>
-    <hyperlink ref="A115" r:id="rId112"/>
-    <hyperlink ref="A116" r:id="rId113"/>
-    <hyperlink ref="A117" r:id="rId114"/>
-    <hyperlink ref="A118" r:id="rId115"/>
-    <hyperlink ref="A119" r:id="rId116"/>
-    <hyperlink ref="A120" r:id="rId117"/>
-    <hyperlink ref="A121" r:id="rId118"/>
-    <hyperlink ref="A122" r:id="rId119"/>
-    <hyperlink ref="A123" r:id="rId120"/>
-    <hyperlink ref="A124" r:id="rId121"/>
-    <hyperlink ref="A125" r:id="rId122"/>
-    <hyperlink ref="A126" r:id="rId123"/>
-    <hyperlink ref="A127" r:id="rId124"/>
-    <hyperlink ref="A128" r:id="rId125"/>
-    <hyperlink ref="A129" r:id="rId126"/>
-    <hyperlink ref="A130" r:id="rId127"/>
-    <hyperlink ref="A131" r:id="rId128"/>
-    <hyperlink ref="A132" r:id="rId129"/>
-    <hyperlink ref="A133" r:id="rId130"/>
-    <hyperlink ref="A134" r:id="rId131"/>
-    <hyperlink ref="A135" r:id="rId132"/>
-    <hyperlink ref="A136" r:id="rId133"/>
-    <hyperlink ref="A137" r:id="rId134"/>
-    <hyperlink ref="A138" r:id="rId135"/>
-    <hyperlink ref="A139" r:id="rId136"/>
-    <hyperlink ref="A140" r:id="rId137"/>
-    <hyperlink ref="A141" r:id="rId138"/>
-    <hyperlink ref="A142" r:id="rId139"/>
-    <hyperlink ref="A143" r:id="rId140"/>
-    <hyperlink ref="A144" r:id="rId141"/>
-    <hyperlink ref="A145" r:id="rId142"/>
-    <hyperlink ref="A146" r:id="rId143"/>
-    <hyperlink ref="A147" r:id="rId144"/>
-    <hyperlink ref="A148" r:id="rId145"/>
-    <hyperlink ref="A149" r:id="rId146"/>
-    <hyperlink ref="A150" r:id="rId147"/>
-    <hyperlink ref="A151" r:id="rId148"/>
-    <hyperlink ref="A152" r:id="rId149"/>
-    <hyperlink ref="A153" r:id="rId150"/>
-    <hyperlink ref="A154" r:id="rId151"/>
-    <hyperlink ref="A155" r:id="rId152"/>
-    <hyperlink ref="A156" r:id="rId153"/>
-    <hyperlink ref="A157" r:id="rId154"/>
-    <hyperlink ref="A158" r:id="rId155"/>
-    <hyperlink ref="A159" r:id="rId156"/>
-    <hyperlink ref="A160" r:id="rId157"/>
-    <hyperlink ref="A161" r:id="rId158"/>
-    <hyperlink ref="A162" r:id="rId159"/>
-    <hyperlink ref="A163" r:id="rId160"/>
-    <hyperlink ref="A164" r:id="rId161"/>
-    <hyperlink ref="A165" r:id="rId162"/>
-    <hyperlink ref="A166" r:id="rId163"/>
-    <hyperlink ref="A167" r:id="rId164"/>
-    <hyperlink ref="A168" r:id="rId165"/>
-    <hyperlink ref="A169" r:id="rId166"/>
-    <hyperlink ref="A170" r:id="rId167"/>
-    <hyperlink ref="A171" r:id="rId168"/>
-    <hyperlink ref="A172" r:id="rId169"/>
-    <hyperlink ref="A173" r:id="rId170"/>
-    <hyperlink ref="A174" r:id="rId171"/>
-    <hyperlink ref="A175" r:id="rId172"/>
-    <hyperlink ref="A176" r:id="rId173"/>
-    <hyperlink ref="A177" r:id="rId174"/>
-    <hyperlink ref="A178" r:id="rId175"/>
-    <hyperlink ref="A179" r:id="rId176"/>
-    <hyperlink ref="A180" r:id="rId177"/>
-    <hyperlink ref="A181" r:id="rId178"/>
-    <hyperlink ref="A182" r:id="rId179"/>
-    <hyperlink ref="A183" r:id="rId180"/>
-    <hyperlink ref="A184" r:id="rId181"/>
-    <hyperlink ref="A185" r:id="rId182"/>
-    <hyperlink ref="A186" r:id="rId183"/>
-    <hyperlink ref="A187" r:id="rId184"/>
-    <hyperlink ref="A188" r:id="rId185"/>
-    <hyperlink ref="A189" r:id="rId186"/>
-    <hyperlink ref="A190" r:id="rId187"/>
-    <hyperlink ref="A191" r:id="rId188"/>
-    <hyperlink ref="A192" r:id="rId189"/>
-    <hyperlink ref="A193" r:id="rId190"/>
-    <hyperlink ref="A194" r:id="rId191"/>
-    <hyperlink ref="A195" r:id="rId192"/>
-    <hyperlink ref="A196" r:id="rId193"/>
-    <hyperlink ref="A197" r:id="rId194"/>
-    <hyperlink ref="A198" r:id="rId195"/>
-    <hyperlink ref="A199" r:id="rId196"/>
-    <hyperlink ref="A200" r:id="rId197"/>
-    <hyperlink ref="A201" r:id="rId198"/>
-    <hyperlink ref="A202" r:id="rId199"/>
-    <hyperlink ref="A203" r:id="rId200"/>
-    <hyperlink ref="A204" r:id="rId201"/>
-    <hyperlink ref="A205" r:id="rId202"/>
-    <hyperlink ref="A206" r:id="rId203"/>
-    <hyperlink ref="A207" r:id="rId204"/>
-    <hyperlink ref="A208" r:id="rId205"/>
-    <hyperlink ref="A209" r:id="rId206"/>
-    <hyperlink ref="A210" r:id="rId207"/>
-    <hyperlink ref="A211" r:id="rId208"/>
-    <hyperlink ref="A212" r:id="rId209"/>
-    <hyperlink ref="A213" r:id="rId210"/>
-    <hyperlink ref="A214" r:id="rId211"/>
-    <hyperlink ref="A215" r:id="rId212"/>
-    <hyperlink ref="A216" r:id="rId213"/>
-    <hyperlink ref="A217" r:id="rId214"/>
-    <hyperlink ref="A218" r:id="rId215"/>
-    <hyperlink ref="A219" r:id="rId216"/>
-    <hyperlink ref="A220" r:id="rId217"/>
-    <hyperlink ref="A221" r:id="rId218"/>
-    <hyperlink ref="A222" r:id="rId219"/>
-    <hyperlink ref="A223" r:id="rId220"/>
-    <hyperlink ref="A224" r:id="rId221"/>
-    <hyperlink ref="A225" r:id="rId222"/>
-    <hyperlink ref="A226" r:id="rId223"/>
-    <hyperlink ref="A227" r:id="rId224"/>
-    <hyperlink ref="A228" r:id="rId225"/>
-    <hyperlink ref="A229" r:id="rId226"/>
-    <hyperlink ref="A230" r:id="rId227"/>
-    <hyperlink ref="A231" r:id="rId228"/>
-    <hyperlink ref="A232" r:id="rId229"/>
-    <hyperlink ref="A233" r:id="rId230"/>
-    <hyperlink ref="A234" r:id="rId231"/>
-    <hyperlink ref="A235" r:id="rId232"/>
-    <hyperlink ref="A236" r:id="rId233"/>
-    <hyperlink ref="A237" r:id="rId234"/>
-    <hyperlink ref="A238" r:id="rId235"/>
-    <hyperlink ref="A239" r:id="rId236"/>
-    <hyperlink ref="A240" r:id="rId237"/>
-    <hyperlink ref="A241" r:id="rId238"/>
-    <hyperlink ref="A242" r:id="rId239"/>
-    <hyperlink ref="A243" r:id="rId240"/>
-    <hyperlink ref="A244" r:id="rId241"/>
-    <hyperlink ref="A245" r:id="rId242"/>
-    <hyperlink ref="A246" r:id="rId243"/>
-    <hyperlink ref="A247" r:id="rId244"/>
-    <hyperlink ref="A248" r:id="rId245"/>
-    <hyperlink ref="A249" r:id="rId246"/>
-    <hyperlink ref="A250" r:id="rId247"/>
-    <hyperlink ref="A251" r:id="rId248"/>
-    <hyperlink ref="A252" r:id="rId249"/>
-    <hyperlink ref="A253" r:id="rId250"/>
-    <hyperlink ref="A254" r:id="rId251"/>
-    <hyperlink ref="A255" r:id="rId252"/>
-    <hyperlink ref="A256" r:id="rId253"/>
-    <hyperlink ref="A257" r:id="rId254"/>
-    <hyperlink ref="A258" r:id="rId255"/>
-    <hyperlink ref="A259" r:id="rId256"/>
-    <hyperlink ref="A260" r:id="rId257"/>
-    <hyperlink ref="A261" r:id="rId258"/>
-    <hyperlink ref="A262" r:id="rId259"/>
-    <hyperlink ref="A263" r:id="rId260"/>
-    <hyperlink ref="A264" r:id="rId261"/>
-    <hyperlink ref="A265" r:id="rId262"/>
-    <hyperlink ref="A266" r:id="rId263"/>
-    <hyperlink ref="A267" r:id="rId264"/>
-    <hyperlink ref="A268" r:id="rId265"/>
-    <hyperlink ref="A269" r:id="rId266"/>
-    <hyperlink ref="A270" r:id="rId267"/>
-    <hyperlink ref="A271" r:id="rId268"/>
-    <hyperlink ref="A272" r:id="rId269"/>
-    <hyperlink ref="A273" r:id="rId270"/>
-    <hyperlink ref="A274" r:id="rId271"/>
-    <hyperlink ref="A275" r:id="rId272"/>
-    <hyperlink ref="A276" r:id="rId273"/>
-    <hyperlink ref="A277" r:id="rId274"/>
-    <hyperlink ref="A278" r:id="rId275"/>
-    <hyperlink ref="A279" r:id="rId276"/>
-    <hyperlink ref="A280" r:id="rId277"/>
-    <hyperlink ref="A281" r:id="rId278"/>
-    <hyperlink ref="A282" r:id="rId279"/>
-    <hyperlink ref="A283" r:id="rId280"/>
-    <hyperlink ref="A284" r:id="rId281"/>
-    <hyperlink ref="A285" r:id="rId282"/>
-    <hyperlink ref="A286" r:id="rId283"/>
-    <hyperlink ref="A287" r:id="rId284"/>
-    <hyperlink ref="A288" r:id="rId285"/>
-    <hyperlink ref="A289" r:id="rId286"/>
-    <hyperlink ref="A290" r:id="rId287"/>
-    <hyperlink ref="A291" r:id="rId288"/>
-    <hyperlink ref="A292" r:id="rId289"/>
-    <hyperlink ref="A293" r:id="rId290"/>
-    <hyperlink ref="A294" r:id="rId291"/>
-    <hyperlink ref="A295" r:id="rId292"/>
-    <hyperlink ref="A296" r:id="rId293"/>
-    <hyperlink ref="A297" r:id="rId294"/>
-    <hyperlink ref="A298" r:id="rId295"/>
-    <hyperlink ref="A299" r:id="rId296"/>
-    <hyperlink ref="A300" r:id="rId297"/>
-    <hyperlink ref="A301" r:id="rId298"/>
-    <hyperlink ref="A302" r:id="rId299"/>
-    <hyperlink ref="A303" r:id="rId300"/>
-    <hyperlink ref="A304" r:id="rId301"/>
-    <hyperlink ref="A305" r:id="rId302"/>
-    <hyperlink ref="A306" r:id="rId303"/>
-    <hyperlink ref="A307" r:id="rId304"/>
-    <hyperlink ref="A308" r:id="rId305"/>
-    <hyperlink ref="A309" r:id="rId306"/>
-    <hyperlink ref="A310" r:id="rId307"/>
-    <hyperlink ref="A311" r:id="rId308"/>
-    <hyperlink ref="A312" r:id="rId309"/>
-    <hyperlink ref="A313" r:id="rId310"/>
-    <hyperlink ref="A314" r:id="rId311"/>
-    <hyperlink ref="A315" r:id="rId312"/>
-    <hyperlink ref="A316" r:id="rId313"/>
-    <hyperlink ref="A317" r:id="rId314"/>
-    <hyperlink ref="A318" r:id="rId315"/>
-    <hyperlink ref="A319" r:id="rId316"/>
-    <hyperlink ref="A320" r:id="rId317"/>
-    <hyperlink ref="A321" r:id="rId318"/>
-    <hyperlink ref="A322" r:id="rId319"/>
-    <hyperlink ref="A323" r:id="rId320"/>
-    <hyperlink ref="A324" r:id="rId321"/>
-    <hyperlink ref="A325" r:id="rId322"/>
-    <hyperlink ref="A326" r:id="rId323"/>
-    <hyperlink ref="A327" r:id="rId324"/>
-    <hyperlink ref="A328" r:id="rId325"/>
-    <hyperlink ref="A329" r:id="rId326"/>
-    <hyperlink ref="A330" r:id="rId327"/>
-    <hyperlink ref="A331" r:id="rId328"/>
-    <hyperlink ref="A332" r:id="rId329"/>
-    <hyperlink ref="A333" r:id="rId330"/>
-    <hyperlink ref="A334" r:id="rId331"/>
-    <hyperlink ref="A335" r:id="rId332"/>
-    <hyperlink ref="A336" r:id="rId333"/>
-    <hyperlink ref="A337" r:id="rId334"/>
-    <hyperlink ref="A338" r:id="rId335"/>
-    <hyperlink ref="A339" r:id="rId336"/>
-    <hyperlink ref="A340" r:id="rId337"/>
-    <hyperlink ref="A341" r:id="rId338"/>
-    <hyperlink ref="A342" r:id="rId339"/>
-    <hyperlink ref="A343" r:id="rId340"/>
-    <hyperlink ref="A344" r:id="rId341"/>
-    <hyperlink ref="A345" r:id="rId342"/>
-    <hyperlink ref="A346" r:id="rId343"/>
-    <hyperlink ref="A347" r:id="rId344"/>
-    <hyperlink ref="A348" r:id="rId345"/>
-    <hyperlink ref="A349" r:id="rId346"/>
-    <hyperlink ref="A350" r:id="rId347"/>
-    <hyperlink ref="A351" r:id="rId348"/>
-    <hyperlink ref="A352" r:id="rId349"/>
-    <hyperlink ref="A353" r:id="rId350"/>
-    <hyperlink ref="A354" r:id="rId351"/>
-    <hyperlink ref="A355" r:id="rId352"/>
-    <hyperlink ref="A356" r:id="rId353"/>
-    <hyperlink ref="A357" r:id="rId354"/>
-    <hyperlink ref="A358" r:id="rId355"/>
-    <hyperlink ref="A359" r:id="rId356"/>
-    <hyperlink ref="A360" r:id="rId357"/>
-    <hyperlink ref="A361" r:id="rId358"/>
-    <hyperlink ref="A362" r:id="rId359"/>
-    <hyperlink ref="A363" r:id="rId360"/>
-    <hyperlink ref="A364" r:id="rId361"/>
-    <hyperlink ref="A365" r:id="rId362"/>
-    <hyperlink ref="A366" r:id="rId363"/>
-    <hyperlink ref="A367" r:id="rId364"/>
-    <hyperlink ref="A368" r:id="rId365"/>
-    <hyperlink ref="A369" r:id="rId366"/>
-    <hyperlink ref="A370" r:id="rId367"/>
-    <hyperlink ref="A371" r:id="rId368"/>
-    <hyperlink ref="A372" r:id="rId369"/>
-    <hyperlink ref="A373" r:id="rId370"/>
-    <hyperlink ref="A374" r:id="rId371"/>
-    <hyperlink ref="A375" r:id="rId372"/>
-    <hyperlink ref="A376" r:id="rId373"/>
-    <hyperlink ref="A377" r:id="rId374"/>
-    <hyperlink ref="A378" r:id="rId375"/>
-    <hyperlink ref="A379" r:id="rId376"/>
-    <hyperlink ref="A380" r:id="rId377"/>
-    <hyperlink ref="A381" r:id="rId378"/>
-    <hyperlink ref="A382" r:id="rId379"/>
-    <hyperlink ref="A383" r:id="rId380"/>
-    <hyperlink ref="A384" r:id="rId381"/>
-    <hyperlink ref="A385" r:id="rId382"/>
-    <hyperlink ref="A386" r:id="rId383"/>
-    <hyperlink ref="A387" r:id="rId384"/>
-    <hyperlink ref="A388" r:id="rId385"/>
-    <hyperlink ref="A389" r:id="rId386"/>
-    <hyperlink ref="A390" r:id="rId387"/>
-    <hyperlink ref="A391" r:id="rId388"/>
-    <hyperlink ref="A392" r:id="rId389"/>
-    <hyperlink ref="A393" r:id="rId390"/>
-    <hyperlink ref="A394" r:id="rId391"/>
-    <hyperlink ref="A395" r:id="rId392"/>
-    <hyperlink ref="A396" r:id="rId393"/>
-    <hyperlink ref="A397" r:id="rId394"/>
-    <hyperlink ref="A398" r:id="rId395"/>
-    <hyperlink ref="A399" r:id="rId396"/>
-    <hyperlink ref="A400" r:id="rId397"/>
-    <hyperlink ref="A401" r:id="rId398"/>
-    <hyperlink ref="A402" r:id="rId399"/>
-    <hyperlink ref="A403" r:id="rId400"/>
-    <hyperlink ref="A404" r:id="rId401"/>
-    <hyperlink ref="A405" r:id="rId402"/>
-    <hyperlink ref="A406" r:id="rId403"/>
-    <hyperlink ref="A407" r:id="rId404"/>
-    <hyperlink ref="A408" r:id="rId405"/>
-    <hyperlink ref="A409" r:id="rId406"/>
-    <hyperlink ref="A410" r:id="rId407"/>
-    <hyperlink ref="A411" r:id="rId408"/>
-    <hyperlink ref="A412" r:id="rId409"/>
-    <hyperlink ref="A413" r:id="rId410"/>
-    <hyperlink ref="A414" r:id="rId411"/>
-    <hyperlink ref="A415" r:id="rId412"/>
-    <hyperlink ref="A416" r:id="rId413"/>
-    <hyperlink ref="A417" r:id="rId414"/>
-    <hyperlink ref="A418" r:id="rId415"/>
-    <hyperlink ref="A419" r:id="rId416"/>
-    <hyperlink ref="A420" r:id="rId417"/>
-    <hyperlink ref="A421" r:id="rId418"/>
-    <hyperlink ref="A422" r:id="rId419"/>
-    <hyperlink ref="A423" r:id="rId420"/>
-    <hyperlink ref="A424" r:id="rId421"/>
-    <hyperlink ref="A425" r:id="rId422"/>
-    <hyperlink ref="A426" r:id="rId423"/>
-    <hyperlink ref="A427" r:id="rId424"/>
-    <hyperlink ref="A428" r:id="rId425"/>
-    <hyperlink ref="A429" r:id="rId426"/>
-    <hyperlink ref="A430" r:id="rId427"/>
-    <hyperlink ref="A431" r:id="rId428"/>
-    <hyperlink ref="A432" r:id="rId429"/>
-    <hyperlink ref="A433" r:id="rId430"/>
-    <hyperlink ref="A434" r:id="rId431"/>
-    <hyperlink ref="A435" r:id="rId432"/>
-    <hyperlink ref="A436" r:id="rId433"/>
-    <hyperlink ref="A437" r:id="rId434"/>
-    <hyperlink ref="A438" r:id="rId435"/>
-    <hyperlink ref="A439" r:id="rId436"/>
-    <hyperlink ref="A440" r:id="rId437"/>
-    <hyperlink ref="A441" r:id="rId438"/>
-    <hyperlink ref="A442" r:id="rId439"/>
-    <hyperlink ref="A443" r:id="rId440"/>
-    <hyperlink ref="A444" r:id="rId441"/>
-    <hyperlink ref="A445" r:id="rId442"/>
-    <hyperlink ref="A446" r:id="rId443"/>
-    <hyperlink ref="A447" r:id="rId444"/>
-    <hyperlink ref="A448" r:id="rId445"/>
-    <hyperlink ref="A449" r:id="rId446"/>
-    <hyperlink ref="A450" r:id="rId447"/>
-    <hyperlink ref="A451" r:id="rId448"/>
-    <hyperlink ref="A452" r:id="rId449"/>
-    <hyperlink ref="A453" r:id="rId450"/>
-    <hyperlink ref="A454" r:id="rId451"/>
-    <hyperlink ref="A455" r:id="rId452"/>
-    <hyperlink ref="A456" r:id="rId453"/>
-    <hyperlink ref="A457" r:id="rId454"/>
-    <hyperlink ref="A458" r:id="rId455"/>
-    <hyperlink ref="A459" r:id="rId456"/>
-    <hyperlink ref="A460" r:id="rId457"/>
-    <hyperlink ref="A461" r:id="rId458"/>
-    <hyperlink ref="A462" r:id="rId459"/>
-    <hyperlink ref="A463" r:id="rId460"/>
-    <hyperlink ref="A464" r:id="rId461"/>
-    <hyperlink ref="A465" r:id="rId462"/>
-    <hyperlink ref="A466" r:id="rId463"/>
-    <hyperlink ref="A467" r:id="rId464"/>
-    <hyperlink ref="A468" r:id="rId465"/>
-    <hyperlink ref="A469" r:id="rId466"/>
-    <hyperlink ref="A470" r:id="rId467"/>
-    <hyperlink ref="A471" r:id="rId468"/>
-    <hyperlink ref="A472" r:id="rId469"/>
-    <hyperlink ref="A473" r:id="rId470"/>
-    <hyperlink ref="A474" r:id="rId471"/>
-    <hyperlink ref="A475" r:id="rId472"/>
-    <hyperlink ref="A476" r:id="rId473"/>
-    <hyperlink ref="A477" r:id="rId474"/>
-    <hyperlink ref="A478" r:id="rId475"/>
-    <hyperlink ref="A479" r:id="rId476"/>
-    <hyperlink ref="A480" r:id="rId477"/>
-    <hyperlink ref="A481" r:id="rId478"/>
-    <hyperlink ref="A482" r:id="rId479"/>
-    <hyperlink ref="A483" r:id="rId480"/>
-    <hyperlink ref="A484" r:id="rId481"/>
-    <hyperlink ref="A485" r:id="rId482"/>
-    <hyperlink ref="A486" r:id="rId483"/>
-    <hyperlink ref="A487" r:id="rId484"/>
-    <hyperlink ref="A488" r:id="rId485"/>
-    <hyperlink ref="A489" r:id="rId486"/>
-    <hyperlink ref="A490" r:id="rId487"/>
-    <hyperlink ref="A491" r:id="rId488"/>
-    <hyperlink ref="A492" r:id="rId489"/>
-    <hyperlink ref="A493" r:id="rId490"/>
-    <hyperlink ref="A494" r:id="rId491"/>
-    <hyperlink ref="A495" r:id="rId492"/>
-    <hyperlink ref="A496" r:id="rId493"/>
-    <hyperlink ref="A497" r:id="rId494"/>
-    <hyperlink ref="A498" r:id="rId495"/>
-    <hyperlink ref="A499" r:id="rId496"/>
-    <hyperlink ref="A500" r:id="rId497"/>
-    <hyperlink ref="A501" r:id="rId498"/>
-    <hyperlink ref="A502" r:id="rId499"/>
-    <hyperlink ref="A503" r:id="rId500"/>
-    <hyperlink ref="A504" r:id="rId501"/>
-    <hyperlink ref="A505" r:id="rId502"/>
-    <hyperlink ref="A506" r:id="rId503"/>
-    <hyperlink ref="A507" r:id="rId504"/>
-    <hyperlink ref="A508" r:id="rId505"/>
-    <hyperlink ref="A509" r:id="rId506"/>
-    <hyperlink ref="A510" r:id="rId507"/>
-    <hyperlink ref="A511" r:id="rId508"/>
-    <hyperlink ref="A512" r:id="rId509"/>
-    <hyperlink ref="A513" r:id="rId510"/>
-    <hyperlink ref="A514" r:id="rId511"/>
-    <hyperlink ref="A515" r:id="rId512"/>
-    <hyperlink ref="A516" r:id="rId513"/>
-    <hyperlink ref="A517" r:id="rId514"/>
-    <hyperlink ref="A518" r:id="rId515"/>
-    <hyperlink ref="A519" r:id="rId516"/>
-    <hyperlink ref="A520" r:id="rId517"/>
-    <hyperlink ref="A521" r:id="rId518"/>
-    <hyperlink ref="A522" r:id="rId519"/>
-    <hyperlink ref="A523" r:id="rId520"/>
-    <hyperlink ref="A524" r:id="rId521"/>
-    <hyperlink ref="A525" r:id="rId522"/>
-    <hyperlink ref="A526" r:id="rId523"/>
-    <hyperlink ref="A527" r:id="rId524"/>
-    <hyperlink ref="A528" r:id="rId525"/>
-    <hyperlink ref="A529" r:id="rId526"/>
-    <hyperlink ref="A530" r:id="rId527"/>
-    <hyperlink ref="A531" r:id="rId528"/>
-    <hyperlink ref="A532" r:id="rId529"/>
-    <hyperlink ref="A533" r:id="rId530"/>
-    <hyperlink ref="A534" r:id="rId531"/>
-    <hyperlink ref="A535" r:id="rId532"/>
-    <hyperlink ref="A536" r:id="rId533"/>
-    <hyperlink ref="A537" r:id="rId534"/>
-    <hyperlink ref="A538" r:id="rId535"/>
-    <hyperlink ref="A539" r:id="rId536"/>
-    <hyperlink ref="A540" r:id="rId537"/>
-    <hyperlink ref="A541" r:id="rId538"/>
-    <hyperlink ref="A542" r:id="rId539"/>
-    <hyperlink ref="A543" r:id="rId540"/>
-    <hyperlink ref="A544" r:id="rId541"/>
-    <hyperlink ref="A545" r:id="rId542"/>
-    <hyperlink ref="A546" r:id="rId543"/>
-    <hyperlink ref="A547" r:id="rId544"/>
-    <hyperlink ref="A548" r:id="rId545"/>
-    <hyperlink ref="A549" r:id="rId546"/>
-    <hyperlink ref="A550" r:id="rId547"/>
-    <hyperlink ref="A551" r:id="rId548"/>
-    <hyperlink ref="A552" r:id="rId549"/>
-    <hyperlink ref="A553" r:id="rId550"/>
-    <hyperlink ref="A554" r:id="rId551"/>
-    <hyperlink ref="A555" r:id="rId552"/>
-    <hyperlink ref="A556" r:id="rId553"/>
-    <hyperlink ref="A557" r:id="rId554"/>
-    <hyperlink ref="A558" r:id="rId555"/>
-    <hyperlink ref="A559" r:id="rId556"/>
-    <hyperlink ref="A560" r:id="rId557"/>
-    <hyperlink ref="A561" r:id="rId558"/>
-    <hyperlink ref="A562" r:id="rId559"/>
-    <hyperlink ref="A563" r:id="rId560"/>
-    <hyperlink ref="A564" r:id="rId561"/>
-    <hyperlink ref="A565" r:id="rId562"/>
-    <hyperlink ref="A566" r:id="rId563"/>
-    <hyperlink ref="A567" r:id="rId564"/>
-    <hyperlink ref="A568" r:id="rId565"/>
-    <hyperlink ref="A569" r:id="rId566"/>
-    <hyperlink ref="A570" r:id="rId567"/>
-    <hyperlink ref="A571" r:id="rId568"/>
-    <hyperlink ref="A572" r:id="rId569"/>
-    <hyperlink ref="A573" r:id="rId570"/>
-    <hyperlink ref="A574" r:id="rId571"/>
-    <hyperlink ref="A575" r:id="rId572"/>
-    <hyperlink ref="A576" r:id="rId573"/>
-    <hyperlink ref="A577" r:id="rId574"/>
-    <hyperlink ref="A578" r:id="rId575"/>
-    <hyperlink ref="A579" r:id="rId576"/>
-    <hyperlink ref="A580" r:id="rId577"/>
-    <hyperlink ref="A581" r:id="rId578"/>
-    <hyperlink ref="A582" r:id="rId579"/>
-    <hyperlink ref="A583" r:id="rId580"/>
-    <hyperlink ref="A584" r:id="rId581"/>
-    <hyperlink ref="A585" r:id="rId582"/>
-    <hyperlink ref="A586" r:id="rId583"/>
-    <hyperlink ref="A587" r:id="rId584"/>
-    <hyperlink ref="A588" r:id="rId585"/>
-    <hyperlink ref="A589" r:id="rId586"/>
-    <hyperlink ref="A590" r:id="rId587"/>
-    <hyperlink ref="A591" r:id="rId588"/>
-    <hyperlink ref="A592" r:id="rId589"/>
-    <hyperlink ref="A593" r:id="rId590"/>
-    <hyperlink ref="A594" r:id="rId591"/>
-    <hyperlink ref="A595" r:id="rId592"/>
-    <hyperlink ref="A596" r:id="rId593"/>
-    <hyperlink ref="A597" r:id="rId594"/>
-    <hyperlink ref="A598" r:id="rId595"/>
-    <hyperlink ref="A599" r:id="rId596"/>
-    <hyperlink ref="A600" r:id="rId597"/>
-    <hyperlink ref="A601" r:id="rId598"/>
-    <hyperlink ref="A602" r:id="rId599"/>
-    <hyperlink ref="A603" r:id="rId600"/>
-    <hyperlink ref="A604" r:id="rId601"/>
-    <hyperlink ref="A605" r:id="rId602"/>
-    <hyperlink ref="A606" r:id="rId603"/>
-    <hyperlink ref="A607" r:id="rId604"/>
-    <hyperlink ref="A608" r:id="rId605"/>
-    <hyperlink ref="A609" r:id="rId606"/>
-    <hyperlink ref="A610" r:id="rId607"/>
-    <hyperlink ref="A611" r:id="rId608"/>
-    <hyperlink ref="A612" r:id="rId609"/>
-    <hyperlink ref="A613" r:id="rId610"/>
-    <hyperlink ref="A614" r:id="rId611"/>
-    <hyperlink ref="A615" r:id="rId612"/>
-    <hyperlink ref="A616" r:id="rId613"/>
-    <hyperlink ref="A617" r:id="rId614"/>
-    <hyperlink ref="A618" r:id="rId615"/>
-    <hyperlink ref="A619" r:id="rId616"/>
-    <hyperlink ref="A620" r:id="rId617"/>
-    <hyperlink ref="A621" r:id="rId618"/>
-    <hyperlink ref="A622" r:id="rId619"/>
-    <hyperlink ref="A623" r:id="rId620"/>
-    <hyperlink ref="A624" r:id="rId621"/>
-    <hyperlink ref="A625" r:id="rId622"/>
-    <hyperlink ref="A626" r:id="rId623"/>
+    <hyperlink ref="E2" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
+    <hyperlink ref="A38" r:id="rId37"/>
+    <hyperlink ref="A39" r:id="rId38"/>
+    <hyperlink ref="A40" r:id="rId39"/>
+    <hyperlink ref="A41" r:id="rId40"/>
+    <hyperlink ref="A42" r:id="rId41"/>
+    <hyperlink ref="A43" r:id="rId42"/>
+    <hyperlink ref="A44" r:id="rId43"/>
+    <hyperlink ref="A45" r:id="rId44"/>
+    <hyperlink ref="A46" r:id="rId45"/>
+    <hyperlink ref="A47" r:id="rId46"/>
+    <hyperlink ref="A48" r:id="rId47"/>
+    <hyperlink ref="A49" r:id="rId48"/>
+    <hyperlink ref="A50" r:id="rId49"/>
+    <hyperlink ref="A51" r:id="rId50"/>
+    <hyperlink ref="A52" r:id="rId51"/>
+    <hyperlink ref="A53" r:id="rId52"/>
+    <hyperlink ref="A54" r:id="rId53"/>
+    <hyperlink ref="A55" r:id="rId54"/>
+    <hyperlink ref="A56" r:id="rId55"/>
+    <hyperlink ref="A57" r:id="rId56"/>
+    <hyperlink ref="A58" r:id="rId57"/>
+    <hyperlink ref="A59" r:id="rId58"/>
+    <hyperlink ref="A60" r:id="rId59"/>
+    <hyperlink ref="A61" r:id="rId60"/>
+    <hyperlink ref="A62" r:id="rId61"/>
+    <hyperlink ref="A63" r:id="rId62"/>
+    <hyperlink ref="A64" r:id="rId63"/>
+    <hyperlink ref="A65" r:id="rId64"/>
+    <hyperlink ref="A66" r:id="rId65"/>
+    <hyperlink ref="A67" r:id="rId66"/>
+    <hyperlink ref="A68" r:id="rId67"/>
+    <hyperlink ref="A69" r:id="rId68"/>
+    <hyperlink ref="A70" r:id="rId69"/>
+    <hyperlink ref="A71" r:id="rId70"/>
+    <hyperlink ref="A72" r:id="rId71"/>
+    <hyperlink ref="A73" r:id="rId72"/>
+    <hyperlink ref="A74" r:id="rId73"/>
+    <hyperlink ref="A75" r:id="rId74"/>
+    <hyperlink ref="A76" r:id="rId75"/>
+    <hyperlink ref="A77" r:id="rId76"/>
+    <hyperlink ref="A78" r:id="rId77"/>
+    <hyperlink ref="A79" r:id="rId78"/>
+    <hyperlink ref="A80" r:id="rId79"/>
+    <hyperlink ref="A81" r:id="rId80"/>
+    <hyperlink ref="A82" r:id="rId81"/>
+    <hyperlink ref="A83" r:id="rId82"/>
+    <hyperlink ref="A84" r:id="rId83"/>
+    <hyperlink ref="A85" r:id="rId84"/>
+    <hyperlink ref="A86" r:id="rId85"/>
+    <hyperlink ref="A87" r:id="rId86"/>
+    <hyperlink ref="A88" r:id="rId87"/>
+    <hyperlink ref="A89" r:id="rId88"/>
+    <hyperlink ref="A90" r:id="rId89"/>
+    <hyperlink ref="A91" r:id="rId90"/>
+    <hyperlink ref="A92" r:id="rId91"/>
+    <hyperlink ref="A93" r:id="rId92"/>
+    <hyperlink ref="A94" r:id="rId93"/>
+    <hyperlink ref="A95" r:id="rId94"/>
+    <hyperlink ref="A96" r:id="rId95"/>
+    <hyperlink ref="A97" r:id="rId96"/>
+    <hyperlink ref="A98" r:id="rId97"/>
+    <hyperlink ref="A99" r:id="rId98"/>
+    <hyperlink ref="A100" r:id="rId99"/>
+    <hyperlink ref="A101" r:id="rId100"/>
+    <hyperlink ref="A102" r:id="rId101"/>
+    <hyperlink ref="A103" r:id="rId102"/>
+    <hyperlink ref="A104" r:id="rId103"/>
+    <hyperlink ref="A105" r:id="rId104"/>
+    <hyperlink ref="A106" r:id="rId105"/>
+    <hyperlink ref="A107" r:id="rId106"/>
+    <hyperlink ref="A108" r:id="rId107"/>
+    <hyperlink ref="A109" r:id="rId108"/>
+    <hyperlink ref="A110" r:id="rId109"/>
+    <hyperlink ref="A111" r:id="rId110"/>
+    <hyperlink ref="A112" r:id="rId111"/>
+    <hyperlink ref="A113" r:id="rId112"/>
+    <hyperlink ref="A114" r:id="rId113"/>
+    <hyperlink ref="A115" r:id="rId114"/>
+    <hyperlink ref="A116" r:id="rId115"/>
+    <hyperlink ref="A117" r:id="rId116"/>
+    <hyperlink ref="A118" r:id="rId117"/>
+    <hyperlink ref="A119" r:id="rId118"/>
+    <hyperlink ref="A120" r:id="rId119"/>
+    <hyperlink ref="A121" r:id="rId120"/>
+    <hyperlink ref="A122" r:id="rId121"/>
+    <hyperlink ref="A123" r:id="rId122"/>
+    <hyperlink ref="A124" r:id="rId123"/>
+    <hyperlink ref="A125" r:id="rId124"/>
+    <hyperlink ref="A126" r:id="rId125"/>
+    <hyperlink ref="A127" r:id="rId126"/>
+    <hyperlink ref="A128" r:id="rId127"/>
+    <hyperlink ref="A129" r:id="rId128"/>
+    <hyperlink ref="A130" r:id="rId129"/>
+    <hyperlink ref="A131" r:id="rId130"/>
+    <hyperlink ref="A132" r:id="rId131"/>
+    <hyperlink ref="A133" r:id="rId132"/>
+    <hyperlink ref="A134" r:id="rId133"/>
+    <hyperlink ref="A135" r:id="rId134"/>
+    <hyperlink ref="A136" r:id="rId135"/>
+    <hyperlink ref="A137" r:id="rId136"/>
+    <hyperlink ref="A138" r:id="rId137"/>
+    <hyperlink ref="A139" r:id="rId138"/>
+    <hyperlink ref="A140" r:id="rId139"/>
+    <hyperlink ref="A141" r:id="rId140"/>
+    <hyperlink ref="A142" r:id="rId141"/>
+    <hyperlink ref="A143" r:id="rId142"/>
+    <hyperlink ref="A144" r:id="rId143"/>
+    <hyperlink ref="A145" r:id="rId144"/>
+    <hyperlink ref="A146" r:id="rId145"/>
+    <hyperlink ref="A147" r:id="rId146"/>
+    <hyperlink ref="A148" r:id="rId147"/>
+    <hyperlink ref="A149" r:id="rId148"/>
+    <hyperlink ref="A150" r:id="rId149"/>
+    <hyperlink ref="A151" r:id="rId150"/>
+    <hyperlink ref="A152" r:id="rId151"/>
+    <hyperlink ref="A153" r:id="rId152"/>
+    <hyperlink ref="A154" r:id="rId153"/>
+    <hyperlink ref="A155" r:id="rId154"/>
+    <hyperlink ref="A156" r:id="rId155"/>
+    <hyperlink ref="A157" r:id="rId156"/>
+    <hyperlink ref="A158" r:id="rId157"/>
+    <hyperlink ref="A159" r:id="rId158"/>
+    <hyperlink ref="A160" r:id="rId159"/>
+    <hyperlink ref="A161" r:id="rId160"/>
+    <hyperlink ref="A162" r:id="rId161"/>
+    <hyperlink ref="A163" r:id="rId162"/>
+    <hyperlink ref="A164" r:id="rId163"/>
+    <hyperlink ref="A165" r:id="rId164"/>
+    <hyperlink ref="A166" r:id="rId165"/>
+    <hyperlink ref="A167" r:id="rId166"/>
+    <hyperlink ref="A168" r:id="rId167"/>
+    <hyperlink ref="A169" r:id="rId168"/>
+    <hyperlink ref="A170" r:id="rId169"/>
+    <hyperlink ref="A171" r:id="rId170"/>
+    <hyperlink ref="A172" r:id="rId171"/>
+    <hyperlink ref="A173" r:id="rId172"/>
+    <hyperlink ref="A174" r:id="rId173"/>
+    <hyperlink ref="A175" r:id="rId174"/>
+    <hyperlink ref="A176" r:id="rId175"/>
+    <hyperlink ref="A177" r:id="rId176"/>
+    <hyperlink ref="A178" r:id="rId177"/>
+    <hyperlink ref="A179" r:id="rId178"/>
+    <hyperlink ref="A180" r:id="rId179"/>
+    <hyperlink ref="A181" r:id="rId180"/>
+    <hyperlink ref="A182" r:id="rId181"/>
+    <hyperlink ref="A183" r:id="rId182"/>
+    <hyperlink ref="A184" r:id="rId183"/>
+    <hyperlink ref="A185" r:id="rId184"/>
+    <hyperlink ref="A186" r:id="rId185"/>
+    <hyperlink ref="A187" r:id="rId186"/>
+    <hyperlink ref="A188" r:id="rId187"/>
+    <hyperlink ref="A189" r:id="rId188"/>
+    <hyperlink ref="A190" r:id="rId189"/>
+    <hyperlink ref="A191" r:id="rId190"/>
+    <hyperlink ref="A192" r:id="rId191"/>
+    <hyperlink ref="A193" r:id="rId192"/>
+    <hyperlink ref="A194" r:id="rId193"/>
+    <hyperlink ref="A195" r:id="rId194"/>
+    <hyperlink ref="A196" r:id="rId195"/>
+    <hyperlink ref="A197" r:id="rId196"/>
+    <hyperlink ref="A198" r:id="rId197"/>
+    <hyperlink ref="A199" r:id="rId198"/>
+    <hyperlink ref="A200" r:id="rId199"/>
+    <hyperlink ref="A201" r:id="rId200"/>
+    <hyperlink ref="A202" r:id="rId201"/>
+    <hyperlink ref="A203" r:id="rId202"/>
+    <hyperlink ref="A204" r:id="rId203"/>
+    <hyperlink ref="A205" r:id="rId204"/>
+    <hyperlink ref="A206" r:id="rId205"/>
+    <hyperlink ref="A207" r:id="rId206"/>
+    <hyperlink ref="A208" r:id="rId207"/>
+    <hyperlink ref="A209" r:id="rId208"/>
+    <hyperlink ref="A210" r:id="rId209"/>
+    <hyperlink ref="A211" r:id="rId210"/>
+    <hyperlink ref="A212" r:id="rId211"/>
+    <hyperlink ref="A213" r:id="rId212"/>
+    <hyperlink ref="A214" r:id="rId213"/>
+    <hyperlink ref="A215" r:id="rId214"/>
+    <hyperlink ref="A216" r:id="rId215"/>
+    <hyperlink ref="A217" r:id="rId216"/>
+    <hyperlink ref="A218" r:id="rId217"/>
+    <hyperlink ref="A219" r:id="rId218"/>
+    <hyperlink ref="A220" r:id="rId219"/>
+    <hyperlink ref="A221" r:id="rId220"/>
+    <hyperlink ref="A222" r:id="rId221"/>
+    <hyperlink ref="A223" r:id="rId222"/>
+    <hyperlink ref="A224" r:id="rId223"/>
+    <hyperlink ref="A225" r:id="rId224"/>
+    <hyperlink ref="A226" r:id="rId225"/>
+    <hyperlink ref="A227" r:id="rId226"/>
+    <hyperlink ref="A228" r:id="rId227"/>
+    <hyperlink ref="A229" r:id="rId228"/>
+    <hyperlink ref="A230" r:id="rId229"/>
+    <hyperlink ref="A231" r:id="rId230"/>
+    <hyperlink ref="A232" r:id="rId231"/>
+    <hyperlink ref="A233" r:id="rId232"/>
+    <hyperlink ref="A234" r:id="rId233"/>
+    <hyperlink ref="A235" r:id="rId234"/>
+    <hyperlink ref="A236" r:id="rId235"/>
+    <hyperlink ref="A237" r:id="rId236"/>
+    <hyperlink ref="A238" r:id="rId237"/>
+    <hyperlink ref="A239" r:id="rId238"/>
+    <hyperlink ref="A240" r:id="rId239"/>
+    <hyperlink ref="A241" r:id="rId240"/>
+    <hyperlink ref="A242" r:id="rId241"/>
+    <hyperlink ref="A243" r:id="rId242"/>
+    <hyperlink ref="A244" r:id="rId243"/>
+    <hyperlink ref="A245" r:id="rId244"/>
+    <hyperlink ref="A246" r:id="rId245"/>
+    <hyperlink ref="A247" r:id="rId246"/>
+    <hyperlink ref="A248" r:id="rId247"/>
+    <hyperlink ref="A249" r:id="rId248"/>
+    <hyperlink ref="A250" r:id="rId249"/>
+    <hyperlink ref="A251" r:id="rId250"/>
+    <hyperlink ref="A252" r:id="rId251"/>
+    <hyperlink ref="A253" r:id="rId252"/>
+    <hyperlink ref="A254" r:id="rId253"/>
+    <hyperlink ref="A255" r:id="rId254"/>
+    <hyperlink ref="A256" r:id="rId255"/>
+    <hyperlink ref="A257" r:id="rId256"/>
+    <hyperlink ref="A258" r:id="rId257"/>
+    <hyperlink ref="A259" r:id="rId258"/>
+    <hyperlink ref="A260" r:id="rId259"/>
+    <hyperlink ref="A261" r:id="rId260"/>
+    <hyperlink ref="A262" r:id="rId261"/>
+    <hyperlink ref="A263" r:id="rId262"/>
+    <hyperlink ref="A264" r:id="rId263"/>
+    <hyperlink ref="A265" r:id="rId264"/>
+    <hyperlink ref="A266" r:id="rId265"/>
+    <hyperlink ref="A267" r:id="rId266"/>
+    <hyperlink ref="A268" r:id="rId267"/>
+    <hyperlink ref="A269" r:id="rId268"/>
+    <hyperlink ref="A270" r:id="rId269"/>
+    <hyperlink ref="A271" r:id="rId270"/>
+    <hyperlink ref="A272" r:id="rId271"/>
+    <hyperlink ref="A273" r:id="rId272"/>
+    <hyperlink ref="A274" r:id="rId273"/>
+    <hyperlink ref="A275" r:id="rId274"/>
+    <hyperlink ref="A276" r:id="rId275"/>
+    <hyperlink ref="A277" r:id="rId276"/>
+    <hyperlink ref="A278" r:id="rId277"/>
+    <hyperlink ref="A279" r:id="rId278"/>
+    <hyperlink ref="A280" r:id="rId279"/>
+    <hyperlink ref="A281" r:id="rId280"/>
+    <hyperlink ref="A282" r:id="rId281"/>
+    <hyperlink ref="A283" r:id="rId282"/>
+    <hyperlink ref="A284" r:id="rId283"/>
+    <hyperlink ref="A285" r:id="rId284"/>
+    <hyperlink ref="A286" r:id="rId285"/>
+    <hyperlink ref="A287" r:id="rId286"/>
+    <hyperlink ref="A288" r:id="rId287"/>
+    <hyperlink ref="A289" r:id="rId288"/>
+    <hyperlink ref="A290" r:id="rId289"/>
+    <hyperlink ref="A291" r:id="rId290"/>
+    <hyperlink ref="A292" r:id="rId291"/>
+    <hyperlink ref="A293" r:id="rId292"/>
+    <hyperlink ref="A294" r:id="rId293"/>
+    <hyperlink ref="A295" r:id="rId294"/>
+    <hyperlink ref="A296" r:id="rId295"/>
+    <hyperlink ref="A297" r:id="rId296"/>
+    <hyperlink ref="A298" r:id="rId297"/>
+    <hyperlink ref="A299" r:id="rId298"/>
+    <hyperlink ref="A300" r:id="rId299"/>
+    <hyperlink ref="A301" r:id="rId300"/>
+    <hyperlink ref="A302" r:id="rId301"/>
+    <hyperlink ref="A303" r:id="rId302"/>
+    <hyperlink ref="A304" r:id="rId303"/>
+    <hyperlink ref="A305" r:id="rId304"/>
+    <hyperlink ref="A306" r:id="rId305"/>
+    <hyperlink ref="A307" r:id="rId306"/>
+    <hyperlink ref="A308" r:id="rId307"/>
+    <hyperlink ref="A309" r:id="rId308"/>
+    <hyperlink ref="A310" r:id="rId309"/>
+    <hyperlink ref="A311" r:id="rId310"/>
+    <hyperlink ref="A312" r:id="rId311"/>
+    <hyperlink ref="A313" r:id="rId312"/>
+    <hyperlink ref="A314" r:id="rId313"/>
+    <hyperlink ref="A315" r:id="rId314"/>
+    <hyperlink ref="A316" r:id="rId315"/>
+    <hyperlink ref="A317" r:id="rId316"/>
+    <hyperlink ref="A318" r:id="rId317"/>
+    <hyperlink ref="A319" r:id="rId318"/>
+    <hyperlink ref="A320" r:id="rId319"/>
+    <hyperlink ref="A321" r:id="rId320"/>
+    <hyperlink ref="A322" r:id="rId321"/>
+    <hyperlink ref="A323" r:id="rId322"/>
+    <hyperlink ref="A324" r:id="rId323"/>
+    <hyperlink ref="A325" r:id="rId324"/>
+    <hyperlink ref="A326" r:id="rId325"/>
+    <hyperlink ref="A327" r:id="rId326"/>
+    <hyperlink ref="A328" r:id="rId327"/>
+    <hyperlink ref="A329" r:id="rId328"/>
+    <hyperlink ref="A330" r:id="rId329"/>
+    <hyperlink ref="A331" r:id="rId330"/>
+    <hyperlink ref="A332" r:id="rId331"/>
+    <hyperlink ref="A333" r:id="rId332"/>
+    <hyperlink ref="A334" r:id="rId333"/>
+    <hyperlink ref="A335" r:id="rId334"/>
+    <hyperlink ref="A336" r:id="rId335"/>
+    <hyperlink ref="A337" r:id="rId336"/>
+    <hyperlink ref="A338" r:id="rId337"/>
+    <hyperlink ref="A339" r:id="rId338"/>
+    <hyperlink ref="A340" r:id="rId339"/>
+    <hyperlink ref="A341" r:id="rId340"/>
+    <hyperlink ref="A342" r:id="rId341"/>
+    <hyperlink ref="A343" r:id="rId342"/>
+    <hyperlink ref="A344" r:id="rId343"/>
+    <hyperlink ref="A345" r:id="rId344"/>
+    <hyperlink ref="A346" r:id="rId345"/>
+    <hyperlink ref="A347" r:id="rId346"/>
+    <hyperlink ref="A348" r:id="rId347"/>
+    <hyperlink ref="A349" r:id="rId348"/>
+    <hyperlink ref="A350" r:id="rId349"/>
+    <hyperlink ref="A351" r:id="rId350"/>
+    <hyperlink ref="A352" r:id="rId351"/>
+    <hyperlink ref="A353" r:id="rId352"/>
+    <hyperlink ref="A354" r:id="rId353"/>
+    <hyperlink ref="A355" r:id="rId354"/>
+    <hyperlink ref="A356" r:id="rId355"/>
+    <hyperlink ref="A357" r:id="rId356"/>
+    <hyperlink ref="A358" r:id="rId357"/>
+    <hyperlink ref="A359" r:id="rId358"/>
+    <hyperlink ref="A360" r:id="rId359"/>
+    <hyperlink ref="A361" r:id="rId360"/>
+    <hyperlink ref="A362" r:id="rId361"/>
+    <hyperlink ref="A363" r:id="rId362"/>
+    <hyperlink ref="A364" r:id="rId363"/>
+    <hyperlink ref="A365" r:id="rId364"/>
+    <hyperlink ref="A366" r:id="rId365"/>
+    <hyperlink ref="A367" r:id="rId366"/>
+    <hyperlink ref="A368" r:id="rId367"/>
+    <hyperlink ref="A369" r:id="rId368"/>
+    <hyperlink ref="A370" r:id="rId369"/>
+    <hyperlink ref="A371" r:id="rId370"/>
+    <hyperlink ref="A372" r:id="rId371"/>
+    <hyperlink ref="A373" r:id="rId372"/>
+    <hyperlink ref="A374" r:id="rId373"/>
+    <hyperlink ref="A375" r:id="rId374"/>
+    <hyperlink ref="A376" r:id="rId375"/>
+    <hyperlink ref="A377" r:id="rId376"/>
+    <hyperlink ref="A378" r:id="rId377"/>
+    <hyperlink ref="A379" r:id="rId378"/>
+    <hyperlink ref="A380" r:id="rId379"/>
+    <hyperlink ref="A381" r:id="rId380"/>
+    <hyperlink ref="A382" r:id="rId381"/>
+    <hyperlink ref="A383" r:id="rId382"/>
+    <hyperlink ref="A384" r:id="rId383"/>
+    <hyperlink ref="A385" r:id="rId384"/>
+    <hyperlink ref="A386" r:id="rId385"/>
+    <hyperlink ref="A387" r:id="rId386"/>
+    <hyperlink ref="A388" r:id="rId387"/>
+    <hyperlink ref="A389" r:id="rId388"/>
+    <hyperlink ref="A390" r:id="rId389"/>
+    <hyperlink ref="A391" r:id="rId390"/>
+    <hyperlink ref="A392" r:id="rId391"/>
+    <hyperlink ref="A393" r:id="rId392"/>
+    <hyperlink ref="A394" r:id="rId393"/>
+    <hyperlink ref="A395" r:id="rId394"/>
+    <hyperlink ref="A396" r:id="rId395"/>
+    <hyperlink ref="A397" r:id="rId396"/>
+    <hyperlink ref="A398" r:id="rId397"/>
+    <hyperlink ref="A399" r:id="rId398"/>
+    <hyperlink ref="A400" r:id="rId399"/>
+    <hyperlink ref="A401" r:id="rId400"/>
+    <hyperlink ref="A402" r:id="rId401"/>
+    <hyperlink ref="A403" r:id="rId402"/>
+    <hyperlink ref="A404" r:id="rId403"/>
+    <hyperlink ref="A405" r:id="rId404"/>
+    <hyperlink ref="A406" r:id="rId405"/>
+    <hyperlink ref="A407" r:id="rId406"/>
+    <hyperlink ref="A408" r:id="rId407"/>
+    <hyperlink ref="A409" r:id="rId408"/>
+    <hyperlink ref="A410" r:id="rId409"/>
+    <hyperlink ref="A411" r:id="rId410"/>
+    <hyperlink ref="A412" r:id="rId411"/>
+    <hyperlink ref="A413" r:id="rId412"/>
+    <hyperlink ref="A414" r:id="rId413"/>
+    <hyperlink ref="A415" r:id="rId414"/>
+    <hyperlink ref="A416" r:id="rId415"/>
+    <hyperlink ref="A417" r:id="rId416"/>
+    <hyperlink ref="A418" r:id="rId417"/>
+    <hyperlink ref="A419" r:id="rId418"/>
+    <hyperlink ref="A420" r:id="rId419"/>
+    <hyperlink ref="A421" r:id="rId420"/>
+    <hyperlink ref="A422" r:id="rId421"/>
+    <hyperlink ref="A423" r:id="rId422"/>
+    <hyperlink ref="A424" r:id="rId423"/>
+    <hyperlink ref="A425" r:id="rId424"/>
+    <hyperlink ref="A426" r:id="rId425"/>
+    <hyperlink ref="A427" r:id="rId426"/>
+    <hyperlink ref="A428" r:id="rId427"/>
+    <hyperlink ref="A429" r:id="rId428"/>
+    <hyperlink ref="A430" r:id="rId429"/>
+    <hyperlink ref="A431" r:id="rId430"/>
+    <hyperlink ref="A432" r:id="rId431"/>
+    <hyperlink ref="A433" r:id="rId432"/>
+    <hyperlink ref="A434" r:id="rId433"/>
+    <hyperlink ref="A435" r:id="rId434"/>
+    <hyperlink ref="A436" r:id="rId435"/>
+    <hyperlink ref="A437" r:id="rId436"/>
+    <hyperlink ref="A438" r:id="rId437"/>
+    <hyperlink ref="A439" r:id="rId438"/>
+    <hyperlink ref="A440" r:id="rId439"/>
+    <hyperlink ref="A441" r:id="rId440"/>
+    <hyperlink ref="A442" r:id="rId441"/>
+    <hyperlink ref="A443" r:id="rId442"/>
+    <hyperlink ref="A444" r:id="rId443"/>
+    <hyperlink ref="A445" r:id="rId444"/>
+    <hyperlink ref="A446" r:id="rId445"/>
+    <hyperlink ref="A447" r:id="rId446"/>
+    <hyperlink ref="A448" r:id="rId447"/>
+    <hyperlink ref="A449" r:id="rId448"/>
+    <hyperlink ref="A450" r:id="rId449"/>
+    <hyperlink ref="A451" r:id="rId450"/>
+    <hyperlink ref="A452" r:id="rId451"/>
+    <hyperlink ref="A453" r:id="rId452"/>
+    <hyperlink ref="A454" r:id="rId453"/>
+    <hyperlink ref="A455" r:id="rId454"/>
+    <hyperlink ref="A456" r:id="rId455"/>
+    <hyperlink ref="A457" r:id="rId456"/>
+    <hyperlink ref="A458" r:id="rId457"/>
+    <hyperlink ref="A459" r:id="rId458"/>
+    <hyperlink ref="A460" r:id="rId459"/>
+    <hyperlink ref="A461" r:id="rId460"/>
+    <hyperlink ref="A462" r:id="rId461"/>
+    <hyperlink ref="A463" r:id="rId462"/>
+    <hyperlink ref="A464" r:id="rId463"/>
+    <hyperlink ref="A465" r:id="rId464"/>
+    <hyperlink ref="A466" r:id="rId465"/>
+    <hyperlink ref="A467" r:id="rId466"/>
+    <hyperlink ref="A468" r:id="rId467"/>
+    <hyperlink ref="A469" r:id="rId468"/>
+    <hyperlink ref="A470" r:id="rId469"/>
+    <hyperlink ref="A471" r:id="rId470"/>
+    <hyperlink ref="A472" r:id="rId471"/>
+    <hyperlink ref="A473" r:id="rId472"/>
+    <hyperlink ref="A474" r:id="rId473"/>
+    <hyperlink ref="A475" r:id="rId474"/>
+    <hyperlink ref="A476" r:id="rId475"/>
+    <hyperlink ref="A477" r:id="rId476"/>
+    <hyperlink ref="A478" r:id="rId477"/>
+    <hyperlink ref="A479" r:id="rId478"/>
+    <hyperlink ref="A480" r:id="rId479"/>
+    <hyperlink ref="A481" r:id="rId480"/>
+    <hyperlink ref="A482" r:id="rId481"/>
+    <hyperlink ref="A483" r:id="rId482"/>
+    <hyperlink ref="A484" r:id="rId483"/>
+    <hyperlink ref="A485" r:id="rId484"/>
+    <hyperlink ref="A486" r:id="rId485"/>
+    <hyperlink ref="A487" r:id="rId486"/>
+    <hyperlink ref="A488" r:id="rId487"/>
+    <hyperlink ref="A489" r:id="rId488"/>
+    <hyperlink ref="A490" r:id="rId489"/>
+    <hyperlink ref="A491" r:id="rId490"/>
+    <hyperlink ref="A492" r:id="rId491"/>
+    <hyperlink ref="A493" r:id="rId492"/>
+    <hyperlink ref="A494" r:id="rId493"/>
+    <hyperlink ref="A495" r:id="rId494"/>
+    <hyperlink ref="A496" r:id="rId495"/>
+    <hyperlink ref="A497" r:id="rId496"/>
+    <hyperlink ref="A498" r:id="rId497"/>
+    <hyperlink ref="A499" r:id="rId498"/>
+    <hyperlink ref="A500" r:id="rId499"/>
+    <hyperlink ref="A501" r:id="rId500"/>
+    <hyperlink ref="A502" r:id="rId501"/>
+    <hyperlink ref="A503" r:id="rId502"/>
+    <hyperlink ref="A504" r:id="rId503"/>
+    <hyperlink ref="A505" r:id="rId504"/>
+    <hyperlink ref="A506" r:id="rId505"/>
+    <hyperlink ref="A507" r:id="rId506"/>
+    <hyperlink ref="A508" r:id="rId507"/>
+    <hyperlink ref="A509" r:id="rId508"/>
+    <hyperlink ref="A510" r:id="rId509"/>
+    <hyperlink ref="A511" r:id="rId510"/>
+    <hyperlink ref="A512" r:id="rId511"/>
+    <hyperlink ref="A513" r:id="rId512"/>
+    <hyperlink ref="A514" r:id="rId513"/>
+    <hyperlink ref="A515" r:id="rId514"/>
+    <hyperlink ref="A516" r:id="rId515"/>
+    <hyperlink ref="A517" r:id="rId516"/>
+    <hyperlink ref="A518" r:id="rId517"/>
+    <hyperlink ref="A519" r:id="rId518"/>
+    <hyperlink ref="A520" r:id="rId519"/>
+    <hyperlink ref="A521" r:id="rId520"/>
+    <hyperlink ref="A522" r:id="rId521"/>
+    <hyperlink ref="A523" r:id="rId522"/>
+    <hyperlink ref="A524" r:id="rId523"/>
+    <hyperlink ref="A525" r:id="rId524"/>
+    <hyperlink ref="A526" r:id="rId525"/>
+    <hyperlink ref="A527" r:id="rId526"/>
+    <hyperlink ref="A528" r:id="rId527"/>
+    <hyperlink ref="A529" r:id="rId528"/>
+    <hyperlink ref="A530" r:id="rId529"/>
+    <hyperlink ref="A531" r:id="rId530"/>
+    <hyperlink ref="A532" r:id="rId531"/>
+    <hyperlink ref="A533" r:id="rId532"/>
+    <hyperlink ref="A534" r:id="rId533"/>
+    <hyperlink ref="A535" r:id="rId534"/>
+    <hyperlink ref="A536" r:id="rId535"/>
+    <hyperlink ref="A537" r:id="rId536"/>
+    <hyperlink ref="A538" r:id="rId537"/>
+    <hyperlink ref="A539" r:id="rId538"/>
+    <hyperlink ref="A540" r:id="rId539"/>
+    <hyperlink ref="A541" r:id="rId540"/>
+    <hyperlink ref="A542" r:id="rId541"/>
+    <hyperlink ref="A543" r:id="rId542"/>
+    <hyperlink ref="A544" r:id="rId543"/>
+    <hyperlink ref="A545" r:id="rId544"/>
+    <hyperlink ref="A546" r:id="rId545"/>
+    <hyperlink ref="A547" r:id="rId546"/>
+    <hyperlink ref="A548" r:id="rId547"/>
+    <hyperlink ref="A549" r:id="rId548"/>
+    <hyperlink ref="A550" r:id="rId549"/>
+    <hyperlink ref="A551" r:id="rId550"/>
+    <hyperlink ref="A552" r:id="rId551"/>
+    <hyperlink ref="A553" r:id="rId552"/>
+    <hyperlink ref="A554" r:id="rId553"/>
+    <hyperlink ref="A555" r:id="rId554"/>
+    <hyperlink ref="A556" r:id="rId555"/>
+    <hyperlink ref="A557" r:id="rId556"/>
+    <hyperlink ref="A558" r:id="rId557"/>
+    <hyperlink ref="A559" r:id="rId558"/>
+    <hyperlink ref="A560" r:id="rId559"/>
+    <hyperlink ref="A561" r:id="rId560"/>
+    <hyperlink ref="A562" r:id="rId561"/>
+    <hyperlink ref="A563" r:id="rId562"/>
+    <hyperlink ref="A564" r:id="rId563"/>
+    <hyperlink ref="A565" r:id="rId564"/>
+    <hyperlink ref="A566" r:id="rId565"/>
+    <hyperlink ref="A567" r:id="rId566"/>
+    <hyperlink ref="A568" r:id="rId567"/>
+    <hyperlink ref="A569" r:id="rId568"/>
+    <hyperlink ref="A570" r:id="rId569"/>
+    <hyperlink ref="A571" r:id="rId570"/>
+    <hyperlink ref="A572" r:id="rId571"/>
+    <hyperlink ref="A573" r:id="rId572"/>
+    <hyperlink ref="A574" r:id="rId573"/>
+    <hyperlink ref="A575" r:id="rId574"/>
+    <hyperlink ref="A576" r:id="rId575"/>
+    <hyperlink ref="A577" r:id="rId576"/>
+    <hyperlink ref="A578" r:id="rId577"/>
+    <hyperlink ref="A579" r:id="rId578"/>
+    <hyperlink ref="A580" r:id="rId579"/>
+    <hyperlink ref="A581" r:id="rId580"/>
+    <hyperlink ref="A582" r:id="rId581"/>
+    <hyperlink ref="A583" r:id="rId582"/>
+    <hyperlink ref="A584" r:id="rId583"/>
+    <hyperlink ref="A585" r:id="rId584"/>
+    <hyperlink ref="A586" r:id="rId585"/>
+    <hyperlink ref="A587" r:id="rId586"/>
+    <hyperlink ref="A588" r:id="rId587"/>
+    <hyperlink ref="A589" r:id="rId588"/>
+    <hyperlink ref="A590" r:id="rId589"/>
+    <hyperlink ref="A591" r:id="rId590"/>
+    <hyperlink ref="A592" r:id="rId591"/>
+    <hyperlink ref="A593" r:id="rId592"/>
+    <hyperlink ref="A594" r:id="rId593"/>
+    <hyperlink ref="A595" r:id="rId594"/>
+    <hyperlink ref="A596" r:id="rId595"/>
+    <hyperlink ref="A597" r:id="rId596"/>
+    <hyperlink ref="A598" r:id="rId597"/>
+    <hyperlink ref="A599" r:id="rId598"/>
+    <hyperlink ref="A600" r:id="rId599"/>
+    <hyperlink ref="A601" r:id="rId600"/>
+    <hyperlink ref="A602" r:id="rId601"/>
+    <hyperlink ref="A603" r:id="rId602"/>
+    <hyperlink ref="A604" r:id="rId603"/>
+    <hyperlink ref="A605" r:id="rId604"/>
+    <hyperlink ref="A606" r:id="rId605"/>
+    <hyperlink ref="A607" r:id="rId606"/>
+    <hyperlink ref="A608" r:id="rId607"/>
+    <hyperlink ref="A609" r:id="rId608"/>
+    <hyperlink ref="A610" r:id="rId609"/>
+    <hyperlink ref="A611" r:id="rId610"/>
+    <hyperlink ref="A612" r:id="rId611"/>
+    <hyperlink ref="A613" r:id="rId612"/>
+    <hyperlink ref="A614" r:id="rId613"/>
+    <hyperlink ref="A615" r:id="rId614"/>
+    <hyperlink ref="A616" r:id="rId615"/>
+    <hyperlink ref="A617" r:id="rId616"/>
+    <hyperlink ref="A618" r:id="rId617"/>
+    <hyperlink ref="A619" r:id="rId618"/>
+    <hyperlink ref="A620" r:id="rId619"/>
+    <hyperlink ref="A621" r:id="rId620"/>
+    <hyperlink ref="A622" r:id="rId621"/>
+    <hyperlink ref="A623" r:id="rId622"/>
+    <hyperlink ref="A624" r:id="rId623"/>
+    <hyperlink ref="A625" r:id="rId624"/>
+    <hyperlink ref="A626" r:id="rId625"/>
+    <hyperlink ref="A627" r:id="rId626"/>
+    <hyperlink ref="A628" r:id="rId627"/>
+    <hyperlink ref="A629" r:id="rId628"/>
+    <hyperlink ref="A630" r:id="rId629"/>
+    <hyperlink ref="A631" r:id="rId630"/>
+    <hyperlink ref="A632" r:id="rId631"/>
+    <hyperlink ref="A633" r:id="rId632"/>
+    <hyperlink ref="A634" r:id="rId633"/>
+    <hyperlink ref="A635" r:id="rId634"/>
+    <hyperlink ref="A636" r:id="rId635"/>
+    <hyperlink ref="A637" r:id="rId636"/>
+    <hyperlink ref="A638" r:id="rId637"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
